--- a/BackTest/2019-10-16 BackTest BSV.xlsx
+++ b/BackTest/2019-10-16 BackTest BSV.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>900</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20</v>
+      </c>
       <c r="L12" t="n">
         <v>105980</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>900</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-100</v>
+      </c>
       <c r="L13" t="n">
         <v>105970</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>900</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-100</v>
+      </c>
       <c r="L14" t="n">
         <v>105940</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1500</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
       <c r="L15" t="n">
         <v>105850</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2200</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-100</v>
+      </c>
       <c r="L16" t="n">
         <v>105690</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2200</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-100</v>
+      </c>
       <c r="L17" t="n">
         <v>105530</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2200</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-100</v>
+      </c>
       <c r="L18" t="n">
         <v>105380</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2500</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-64.70588235294117</v>
+      </c>
       <c r="L19" t="n">
         <v>105260</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2500</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-62.5</v>
+      </c>
       <c r="L20" t="n">
         <v>105150</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2500</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-62.5</v>
+      </c>
       <c r="L21" t="n">
         <v>105050</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2700</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-44.44444444444444</v>
+      </c>
       <c r="L22" t="n">
         <v>104970</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2700</v>
       </c>
       <c r="K23" t="n">
-        <v>-39.1304347826087</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L23" t="n">
         <v>104890</v>
@@ -1466,7 +1488,7 @@
         <v>2800</v>
       </c>
       <c r="K24" t="n">
-        <v>-54.54545454545454</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L24" t="n">
         <v>104800</v>
@@ -1515,7 +1537,7 @@
         <v>2900</v>
       </c>
       <c r="K25" t="n">
-        <v>-56.52173913043478</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L25" t="n">
         <v>104760</v>
@@ -1564,7 +1586,7 @@
         <v>2900</v>
       </c>
       <c r="K26" t="n">
-        <v>-56.52173913043478</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L26" t="n">
         <v>104790</v>
@@ -1613,7 +1635,7 @@
         <v>3100</v>
       </c>
       <c r="K27" t="n">
-        <v>-44</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L27" t="n">
         <v>104840</v>
@@ -1662,7 +1684,7 @@
         <v>3300</v>
       </c>
       <c r="K28" t="n">
-        <v>-46.15384615384615</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>104870</v>
@@ -1711,7 +1733,7 @@
         <v>3300</v>
       </c>
       <c r="K29" t="n">
-        <v>-46.15384615384615</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>104870</v>
@@ -1760,7 +1782,7 @@
         <v>3300</v>
       </c>
       <c r="K30" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>104870</v>
@@ -1809,7 +1831,7 @@
         <v>3500</v>
       </c>
       <c r="K31" t="n">
-        <v>-46.15384615384615</v>
+        <v>-50</v>
       </c>
       <c r="L31" t="n">
         <v>104850</v>
@@ -1860,7 +1882,7 @@
         <v>3700</v>
       </c>
       <c r="K32" t="n">
-        <v>-35.71428571428572</v>
+        <v>-20</v>
       </c>
       <c r="L32" t="n">
         <v>104830</v>
@@ -1911,7 +1933,7 @@
         <v>3800</v>
       </c>
       <c r="K33" t="n">
-        <v>-37.93103448275862</v>
+        <v>-20</v>
       </c>
       <c r="L33" t="n">
         <v>104800</v>
@@ -1962,7 +1984,7 @@
         <v>4000</v>
       </c>
       <c r="K34" t="n">
-        <v>-41.93548387096774</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L34" t="n">
         <v>104760</v>
@@ -2013,7 +2035,7 @@
         <v>4200</v>
       </c>
       <c r="K35" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L35" t="n">
         <v>104710</v>
@@ -2064,7 +2086,7 @@
         <v>4200</v>
       </c>
       <c r="K36" t="n">
-        <v>-10</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L36" t="n">
         <v>104660</v>
@@ -2115,7 +2137,7 @@
         <v>4300</v>
       </c>
       <c r="K37" t="n">
-        <v>-4.761904761904762</v>
+        <v>-40</v>
       </c>
       <c r="L37" t="n">
         <v>104600</v>
@@ -2166,7 +2188,7 @@
         <v>5100</v>
       </c>
       <c r="K38" t="n">
-        <v>24.13793103448276</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L38" t="n">
         <v>104640</v>
@@ -2217,7 +2239,7 @@
         <v>5200</v>
       </c>
       <c r="K39" t="n">
-        <v>11.11111111111111</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L39" t="n">
         <v>104670</v>
@@ -2268,7 +2290,7 @@
         <v>5200</v>
       </c>
       <c r="K40" t="n">
-        <v>11.11111111111111</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L40" t="n">
         <v>104700</v>
@@ -2319,7 +2341,7 @@
         <v>5500</v>
       </c>
       <c r="K41" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>104780</v>
@@ -2370,7 +2392,7 @@
         <v>5600</v>
       </c>
       <c r="K42" t="n">
-        <v>10.3448275862069</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>104830</v>
@@ -2421,7 +2443,7 @@
         <v>6000</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.03030303030303</v>
+        <v>20</v>
       </c>
       <c r="L43" t="n">
         <v>104850</v>
@@ -2472,7 +2494,7 @@
         <v>6100</v>
       </c>
       <c r="K44" t="n">
-        <v>-3.03030303030303</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L44" t="n">
         <v>104880</v>
@@ -2523,7 +2545,7 @@
         <v>6100</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L45" t="n">
         <v>104930</v>
@@ -2574,7 +2596,7 @@
         <v>6200</v>
       </c>
       <c r="K46" t="n">
-        <v>3.03030303030303</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L46" t="n">
         <v>104990</v>
@@ -2625,7 +2647,7 @@
         <v>6500</v>
       </c>
       <c r="K47" t="n">
-        <v>-11.76470588235294</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L47" t="n">
         <v>105010</v>
@@ -2676,7 +2698,7 @@
         <v>6500</v>
       </c>
       <c r="K48" t="n">
-        <v>-6.25</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L48" t="n">
         <v>104950</v>
@@ -2727,7 +2749,7 @@
         <v>6600</v>
       </c>
       <c r="K49" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L49" t="n">
         <v>104890</v>
@@ -2778,7 +2800,7 @@
         <v>6800</v>
       </c>
       <c r="K50" t="n">
-        <v>-14.28571428571428</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L50" t="n">
         <v>104810</v>
@@ -2829,7 +2851,7 @@
         <v>6800</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.090909090909092</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L51" t="n">
         <v>104700</v>
@@ -2880,7 +2902,7 @@
         <v>6800</v>
       </c>
       <c r="K52" t="n">
-        <v>-16.12903225806452</v>
+        <v>-75</v>
       </c>
       <c r="L52" t="n">
         <v>104600</v>
@@ -2931,7 +2953,7 @@
         <v>6800</v>
       </c>
       <c r="K53" t="n">
-        <v>-13.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L53" t="n">
         <v>104540</v>
@@ -2982,7 +3004,7 @@
         <v>7000</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>104510</v>
@@ -3033,7 +3055,7 @@
         <v>7000</v>
       </c>
       <c r="K55" t="n">
-        <v>7.142857142857142</v>
+        <v>-50</v>
       </c>
       <c r="L55" t="n">
         <v>104480</v>
@@ -3084,7 +3106,7 @@
         <v>7100</v>
       </c>
       <c r="K56" t="n">
-        <v>3.448275862068965</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>104430</v>
@@ -3135,7 +3157,7 @@
         <v>7100</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>104410</v>
@@ -3186,7 +3208,7 @@
         <v>7300</v>
       </c>
       <c r="K58" t="n">
-        <v>-27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>104410</v>
@@ -3237,7 +3259,7 @@
         <v>7300</v>
       </c>
       <c r="K59" t="n">
-        <v>-23.80952380952381</v>
+        <v>60</v>
       </c>
       <c r="L59" t="n">
         <v>104420</v>
@@ -3288,7 +3310,7 @@
         <v>7300</v>
       </c>
       <c r="K60" t="n">
-        <v>-23.80952380952381</v>
+        <v>60</v>
       </c>
       <c r="L60" t="n">
         <v>104450</v>
@@ -3339,7 +3361,7 @@
         <v>7600</v>
       </c>
       <c r="K61" t="n">
-        <v>-52.38095238095239</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>104450</v>
@@ -3390,7 +3412,7 @@
         <v>7700</v>
       </c>
       <c r="K62" t="n">
-        <v>-52.38095238095239</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L62" t="n">
         <v>104440</v>
@@ -3441,7 +3463,7 @@
         <v>9100</v>
       </c>
       <c r="K63" t="n">
-        <v>22.58064516129032</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L63" t="n">
         <v>104570</v>
@@ -3492,7 +3514,7 @@
         <v>9600</v>
       </c>
       <c r="K64" t="n">
-        <v>8.571428571428571</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L64" t="n">
         <v>104630</v>
@@ -3543,7 +3565,7 @@
         <v>9600</v>
       </c>
       <c r="K65" t="n">
-        <v>8.571428571428571</v>
+        <v>28</v>
       </c>
       <c r="L65" t="n">
         <v>104690</v>
@@ -3594,7 +3616,7 @@
         <v>9900</v>
       </c>
       <c r="K66" t="n">
-        <v>-2.702702702702703</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>104730</v>
@@ -3645,7 +3667,7 @@
         <v>10000</v>
       </c>
       <c r="K67" t="n">
-        <v>2.857142857142857</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L67" t="n">
         <v>104760</v>
@@ -3696,7 +3718,7 @@
         <v>10200</v>
       </c>
       <c r="K68" t="n">
-        <v>-2.702702702702703</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L68" t="n">
         <v>104750</v>
@@ -3747,7 +3769,7 @@
         <v>10500</v>
       </c>
       <c r="K69" t="n">
-        <v>7.692307692307693</v>
+        <v>6.25</v>
       </c>
       <c r="L69" t="n">
         <v>104770</v>
@@ -3798,7 +3820,7 @@
         <v>10600</v>
       </c>
       <c r="K70" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L70" t="n">
         <v>104800</v>
@@ -3849,7 +3871,7 @@
         <v>10700</v>
       </c>
       <c r="K71" t="n">
-        <v>17.94871794871795</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L71" t="n">
         <v>104870</v>
@@ -3900,7 +3922,7 @@
         <v>11200</v>
       </c>
       <c r="K72" t="n">
-        <v>4.545454545454546</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L72" t="n">
         <v>104900</v>
@@ -3951,7 +3973,7 @@
         <v>11600</v>
       </c>
       <c r="K73" t="n">
-        <v>-4.166666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L73" t="n">
         <v>104750</v>
@@ -4002,7 +4024,7 @@
         <v>12600</v>
       </c>
       <c r="K74" t="n">
-        <v>-25</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L74" t="n">
         <v>104550</v>
@@ -4053,7 +4075,7 @@
         <v>12700</v>
       </c>
       <c r="K75" t="n">
-        <v>-26.31578947368421</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L75" t="n">
         <v>104340</v>
@@ -4104,7 +4126,7 @@
         <v>13300</v>
       </c>
       <c r="K76" t="n">
-        <v>-12.90322580645161</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>104220</v>
@@ -4155,7 +4177,7 @@
         <v>13600</v>
       </c>
       <c r="K77" t="n">
-        <v>-7.692307692307693</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L77" t="n">
         <v>104140</v>
@@ -4206,7 +4228,7 @@
         <v>13600</v>
       </c>
       <c r="K78" t="n">
-        <v>-11.11111111111111</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L78" t="n">
         <v>104080</v>
@@ -4257,7 +4279,7 @@
         <v>14100</v>
       </c>
       <c r="K79" t="n">
-        <v>-17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L79" t="n">
         <v>103940</v>
@@ -4308,7 +4330,7 @@
         <v>14100</v>
       </c>
       <c r="K80" t="n">
-        <v>-17.64705882352941</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L80" t="n">
         <v>103790</v>
@@ -4359,7 +4381,7 @@
         <v>14800</v>
       </c>
       <c r="K81" t="n">
-        <v>-2.777777777777778</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L81" t="n">
         <v>103700</v>
@@ -4410,7 +4432,7 @@
         <v>15000</v>
       </c>
       <c r="K82" t="n">
-        <v>-4.10958904109589</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L82" t="n">
         <v>103640</v>
@@ -4461,7 +4483,7 @@
         <v>15100</v>
       </c>
       <c r="K83" t="n">
-        <v>-30</v>
+        <v>28</v>
       </c>
       <c r="L83" t="n">
         <v>103610</v>
@@ -4512,7 +4534,7 @@
         <v>15200</v>
       </c>
       <c r="K84" t="n">
-        <v>-25</v>
+        <v>28</v>
       </c>
       <c r="L84" t="n">
         <v>103670</v>
@@ -4563,7 +4585,7 @@
         <v>15200</v>
       </c>
       <c r="K85" t="n">
-        <v>-25</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L85" t="n">
         <v>103740</v>
@@ -4614,7 +4636,7 @@
         <v>15700</v>
       </c>
       <c r="K86" t="n">
-        <v>-27.58620689655172</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>103700</v>
@@ -4665,7 +4687,7 @@
         <v>16100</v>
       </c>
       <c r="K87" t="n">
-        <v>-18.0327868852459</v>
+        <v>-12</v>
       </c>
       <c r="L87" t="n">
         <v>103670</v>
@@ -4716,7 +4738,7 @@
         <v>16400</v>
       </c>
       <c r="K88" t="n">
-        <v>-9.67741935483871</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L88" t="n">
         <v>103670</v>
@@ -4767,7 +4789,7 @@
         <v>16800</v>
       </c>
       <c r="K89" t="n">
-        <v>-20.63492063492063</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L89" t="n">
         <v>103680</v>
@@ -4818,7 +4840,7 @@
         <v>17000</v>
       </c>
       <c r="K90" t="n">
-        <v>-25</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L90" t="n">
         <v>103670</v>
@@ -4869,7 +4891,7 @@
         <v>17500</v>
       </c>
       <c r="K91" t="n">
-        <v>-17.64705882352941</v>
+        <v>-4</v>
       </c>
       <c r="L91" t="n">
         <v>103640</v>
@@ -4920,7 +4942,7 @@
         <v>17600</v>
       </c>
       <c r="K92" t="n">
-        <v>-12.5</v>
+        <v>-4</v>
       </c>
       <c r="L92" t="n">
         <v>103620</v>
@@ -4971,7 +4993,7 @@
         <v>17800</v>
       </c>
       <c r="K93" t="n">
-        <v>-3.225806451612903</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L93" t="n">
         <v>103630</v>
@@ -5022,7 +5044,7 @@
         <v>17800</v>
       </c>
       <c r="K94" t="n">
-        <v>15.38461538461539</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L94" t="n">
         <v>103650</v>
@@ -5073,7 +5095,7 @@
         <v>17800</v>
       </c>
       <c r="K95" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>103670</v>
@@ -5175,7 +5197,7 @@
         <v>18100</v>
       </c>
       <c r="K97" t="n">
-        <v>-6.666666666666667</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L97" t="n">
         <v>103710</v>
@@ -5226,7 +5248,7 @@
         <v>18300</v>
       </c>
       <c r="K98" t="n">
-        <v>-2.127659574468085</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>103700</v>
@@ -5277,7 +5299,7 @@
         <v>18600</v>
       </c>
       <c r="K99" t="n">
-        <v>15.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="L99" t="n">
         <v>103760</v>
@@ -5328,7 +5350,7 @@
         <v>18600</v>
       </c>
       <c r="K100" t="n">
-        <v>15.55555555555556</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L100" t="n">
         <v>103840</v>
@@ -5379,7 +5401,7 @@
         <v>18800</v>
       </c>
       <c r="K101" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L101" t="n">
         <v>103890</v>
@@ -5481,7 +5503,7 @@
         <v>19200</v>
       </c>
       <c r="K103" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>103910</v>
@@ -5532,7 +5554,7 @@
         <v>19500</v>
       </c>
       <c r="K104" t="n">
-        <v>11.62790697674419</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L104" t="n">
         <v>103940</v>
@@ -5583,7 +5605,7 @@
         <v>19600</v>
       </c>
       <c r="K105" t="n">
-        <v>13.63636363636363</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L105" t="n">
         <v>103980</v>
@@ -5634,7 +5656,7 @@
         <v>19800</v>
       </c>
       <c r="K106" t="n">
-        <v>21.95121951219512</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L106" t="n">
         <v>104030</v>
@@ -5685,7 +5707,7 @@
         <v>20000</v>
       </c>
       <c r="K107" t="n">
-        <v>17.94871794871795</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L107" t="n">
         <v>104100</v>
@@ -5736,7 +5758,7 @@
         <v>20200</v>
       </c>
       <c r="K108" t="n">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L108" t="n">
         <v>104170</v>
@@ -5787,7 +5809,7 @@
         <v>20400</v>
       </c>
       <c r="K109" t="n">
-        <v>22.22222222222222</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L109" t="n">
         <v>104190</v>
@@ -5838,7 +5860,7 @@
         <v>20700</v>
       </c>
       <c r="K110" t="n">
-        <v>35.13513513513514</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L110" t="n">
         <v>104240</v>
@@ -5889,7 +5911,7 @@
         <v>20700</v>
       </c>
       <c r="K111" t="n">
-        <v>25</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L111" t="n">
         <v>104270</v>
@@ -5940,7 +5962,7 @@
         <v>20800</v>
       </c>
       <c r="K112" t="n">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="L112" t="n">
         <v>104330</v>
@@ -5991,7 +6013,7 @@
         <v>21000</v>
       </c>
       <c r="K113" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>104410</v>
@@ -6042,7 +6064,7 @@
         <v>21000</v>
       </c>
       <c r="K114" t="n">
-        <v>25</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L114" t="n">
         <v>104460</v>
@@ -6093,7 +6115,7 @@
         <v>21300</v>
       </c>
       <c r="K115" t="n">
-        <v>31.42857142857143</v>
+        <v>60</v>
       </c>
       <c r="L115" t="n">
         <v>104530</v>
@@ -6144,7 +6166,7 @@
         <v>21500</v>
       </c>
       <c r="K116" t="n">
-        <v>35.29411764705883</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>104600</v>
@@ -6195,7 +6217,7 @@
         <v>21900</v>
       </c>
       <c r="K117" t="n">
-        <v>42.10526315789473</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L117" t="n">
         <v>104690</v>
@@ -6246,7 +6268,7 @@
         <v>22100</v>
       </c>
       <c r="K118" t="n">
-        <v>42.10526315789473</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L118" t="n">
         <v>104780</v>
@@ -6297,7 +6319,7 @@
         <v>22100</v>
       </c>
       <c r="K119" t="n">
-        <v>37.14285714285715</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L119" t="n">
         <v>104890</v>
@@ -6348,7 +6370,7 @@
         <v>22200</v>
       </c>
       <c r="K120" t="n">
-        <v>38.88888888888889</v>
+        <v>60</v>
       </c>
       <c r="L120" t="n">
         <v>104980</v>
@@ -6399,7 +6421,7 @@
         <v>22200</v>
       </c>
       <c r="K121" t="n">
-        <v>35.29411764705883</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L121" t="n">
         <v>105070</v>
@@ -6450,7 +6472,7 @@
         <v>22600</v>
       </c>
       <c r="K122" t="n">
-        <v>58.82352941176471</v>
+        <v>75</v>
       </c>
       <c r="L122" t="n">
         <v>105210</v>
@@ -6501,7 +6523,7 @@
         <v>22700</v>
       </c>
       <c r="K123" t="n">
-        <v>60</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L123" t="n">
         <v>105340</v>
@@ -6552,7 +6574,7 @@
         <v>23000</v>
       </c>
       <c r="K124" t="n">
-        <v>42.85714285714285</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L124" t="n">
         <v>105440</v>
@@ -6603,7 +6625,7 @@
         <v>23400</v>
       </c>
       <c r="K125" t="n">
-        <v>47.36842105263158</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L125" t="n">
         <v>105550</v>
@@ -6654,7 +6676,7 @@
         <v>23700</v>
       </c>
       <c r="K126" t="n">
-        <v>43.58974358974359</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>105650</v>
@@ -6705,7 +6727,7 @@
         <v>23900</v>
       </c>
       <c r="K127" t="n">
-        <v>43.58974358974359</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>105730</v>
@@ -6756,7 +6778,7 @@
         <v>24700</v>
       </c>
       <c r="K128" t="n">
-        <v>15.55555555555556</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L128" t="n">
         <v>105710</v>
@@ -6807,7 +6829,7 @@
         <v>25100</v>
       </c>
       <c r="K129" t="n">
-        <v>27.65957446808511</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L129" t="n">
         <v>105730</v>
@@ -6858,7 +6880,7 @@
         <v>25300</v>
       </c>
       <c r="K130" t="n">
-        <v>17.39130434782609</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L130" t="n">
         <v>105720</v>
@@ -6909,7 +6931,7 @@
         <v>25600</v>
       </c>
       <c r="K131" t="n">
-        <v>10.20408163265306</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L131" t="n">
         <v>105680</v>
@@ -6960,7 +6982,7 @@
         <v>26000</v>
       </c>
       <c r="K132" t="n">
-        <v>19.23076923076923</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L132" t="n">
         <v>105640</v>
@@ -7011,7 +7033,7 @@
         <v>26000</v>
       </c>
       <c r="K133" t="n">
-        <v>16</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L133" t="n">
         <v>105590</v>
@@ -7062,7 +7084,7 @@
         <v>26100</v>
       </c>
       <c r="K134" t="n">
-        <v>17.64705882352941</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L134" t="n">
         <v>105580</v>
@@ -7113,7 +7135,7 @@
         <v>26400</v>
       </c>
       <c r="K135" t="n">
-        <v>17.64705882352941</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L135" t="n">
         <v>105560</v>
@@ -7164,7 +7186,7 @@
         <v>26400</v>
       </c>
       <c r="K136" t="n">
-        <v>22.44897959183674</v>
+        <v>-4</v>
       </c>
       <c r="L136" t="n">
         <v>105570</v>
@@ -7215,7 +7237,7 @@
         <v>26400</v>
       </c>
       <c r="K137" t="n">
-        <v>15.55555555555556</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L137" t="n">
         <v>105560</v>
@@ -7266,7 +7288,7 @@
         <v>26500</v>
       </c>
       <c r="K138" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L138" t="n">
         <v>105620</v>
@@ -7317,7 +7339,7 @@
         <v>26900</v>
       </c>
       <c r="K139" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L139" t="n">
         <v>105680</v>
@@ -7368,7 +7390,7 @@
         <v>27000</v>
       </c>
       <c r="K140" t="n">
-        <v>12.5</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L140" t="n">
         <v>105750</v>
@@ -7419,7 +7441,7 @@
         <v>27100</v>
       </c>
       <c r="K141" t="n">
-        <v>14.28571428571428</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L141" t="n">
         <v>105860</v>
@@ -7470,7 +7492,7 @@
         <v>27300</v>
       </c>
       <c r="K142" t="n">
-        <v>10.63829787234043</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L142" t="n">
         <v>105950</v>
@@ -7521,7 +7543,7 @@
         <v>27400</v>
       </c>
       <c r="K143" t="n">
-        <v>6.382978723404255</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L143" t="n">
         <v>106030</v>
@@ -7572,7 +7594,7 @@
         <v>27900</v>
       </c>
       <c r="K144" t="n">
-        <v>2.040816326530612</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L144" t="n">
         <v>106050</v>
@@ -7623,7 +7645,7 @@
         <v>28400</v>
       </c>
       <c r="K145" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L145" t="n">
         <v>106090</v>
@@ -7674,7 +7696,7 @@
         <v>28400</v>
       </c>
       <c r="K146" t="n">
-        <v>10.63829787234043</v>
+        <v>20</v>
       </c>
       <c r="L146" t="n">
         <v>106130</v>
@@ -7725,7 +7747,7 @@
         <v>28400</v>
       </c>
       <c r="K147" t="n">
-        <v>6.666666666666667</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L147" t="n">
         <v>106170</v>
@@ -7776,7 +7798,7 @@
         <v>28500</v>
       </c>
       <c r="K148" t="n">
-        <v>31.57894736842105</v>
+        <v>12.5</v>
       </c>
       <c r="L148" t="n">
         <v>106230</v>
@@ -7827,7 +7849,7 @@
         <v>28600</v>
       </c>
       <c r="K149" t="n">
-        <v>25.71428571428571</v>
+        <v>25</v>
       </c>
       <c r="L149" t="n">
         <v>106260</v>
@@ -7878,7 +7900,7 @@
         <v>28800</v>
       </c>
       <c r="K150" t="n">
-        <v>37.14285714285715</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L150" t="n">
         <v>106320</v>
@@ -7929,7 +7951,7 @@
         <v>28900</v>
       </c>
       <c r="K151" t="n">
-        <v>51.51515151515152</v>
+        <v>25</v>
       </c>
       <c r="L151" t="n">
         <v>106380</v>
@@ -7980,7 +8002,7 @@
         <v>28900</v>
       </c>
       <c r="K152" t="n">
-        <v>44.82758620689656</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>106420</v>
@@ -8031,7 +8053,7 @@
         <v>29000</v>
       </c>
       <c r="K153" t="n">
-        <v>46.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L153" t="n">
         <v>106480</v>
@@ -8082,7 +8104,7 @@
         <v>29300</v>
       </c>
       <c r="K154" t="n">
-        <v>31.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>106560</v>
@@ -8133,7 +8155,7 @@
         <v>29300</v>
       </c>
       <c r="K155" t="n">
-        <v>24.13793103448276</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>106590</v>
@@ -8184,7 +8206,7 @@
         <v>29300</v>
       </c>
       <c r="K156" t="n">
-        <v>24.13793103448276</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>106620</v>
@@ -8235,7 +8257,7 @@
         <v>29500</v>
       </c>
       <c r="K157" t="n">
-        <v>16.12903225806452</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>106630</v>
@@ -8286,7 +8308,7 @@
         <v>29900</v>
       </c>
       <c r="K158" t="n">
-        <v>5.88235294117647</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L158" t="n">
         <v>106590</v>
@@ -8337,7 +8359,7 @@
         <v>30200</v>
       </c>
       <c r="K159" t="n">
-        <v>3.03030303030303</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L159" t="n">
         <v>106570</v>
@@ -8388,7 +8410,7 @@
         <v>30200</v>
       </c>
       <c r="K160" t="n">
-        <v>6.25</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L160" t="n">
         <v>106530</v>
@@ -8439,7 +8461,7 @@
         <v>30400</v>
       </c>
       <c r="K161" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L161" t="n">
         <v>106500</v>
@@ -8490,7 +8512,7 @@
         <v>30700</v>
       </c>
       <c r="K162" t="n">
-        <v>-5.88235294117647</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L162" t="n">
         <v>106440</v>
@@ -8541,7 +8563,7 @@
         <v>30900</v>
       </c>
       <c r="K163" t="n">
-        <v>-8.571428571428571</v>
+        <v>-37.5</v>
       </c>
       <c r="L163" t="n">
         <v>106350</v>
@@ -8592,7 +8614,7 @@
         <v>31000</v>
       </c>
       <c r="K164" t="n">
-        <v>3.225806451612903</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L164" t="n">
         <v>106280</v>
@@ -8643,7 +8665,7 @@
         <v>31000</v>
       </c>
       <c r="K165" t="n">
-        <v>-15.38461538461539</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L165" t="n">
         <v>106210</v>
@@ -8694,7 +8716,7 @@
         <v>31100</v>
       </c>
       <c r="K166" t="n">
-        <v>-18.51851851851852</v>
+        <v>-37.5</v>
       </c>
       <c r="L166" t="n">
         <v>106130</v>
@@ -8745,7 +8767,7 @@
         <v>31100</v>
       </c>
       <c r="K167" t="n">
-        <v>-18.51851851851852</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L167" t="n">
         <v>106070</v>
@@ -8796,7 +8818,7 @@
         <v>31100</v>
       </c>
       <c r="K168" t="n">
-        <v>-23.07692307692308</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L168" t="n">
         <v>106050</v>
@@ -8847,7 +8869,7 @@
         <v>31200</v>
       </c>
       <c r="K169" t="n">
-        <v>-23.07692307692308</v>
+        <v>-40</v>
       </c>
       <c r="L169" t="n">
         <v>106010</v>
@@ -8898,7 +8920,7 @@
         <v>31500</v>
       </c>
       <c r="K170" t="n">
-        <v>-40.74074074074074</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L170" t="n">
         <v>105940</v>
@@ -8949,7 +8971,7 @@
         <v>31800</v>
       </c>
       <c r="K171" t="n">
-        <v>-31.03448275862069</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L171" t="n">
         <v>105880</v>
@@ -9000,7 +9022,7 @@
         <v>32100</v>
       </c>
       <c r="K172" t="n">
-        <v>-18.75</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L172" t="n">
         <v>105880</v>
@@ -9051,7 +9073,7 @@
         <v>32500</v>
       </c>
       <c r="K173" t="n">
-        <v>-31.42857142857143</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L173" t="n">
         <v>105860</v>
@@ -9102,7 +9124,7 @@
         <v>32500</v>
       </c>
       <c r="K174" t="n">
-        <v>-25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L174" t="n">
         <v>105850</v>
@@ -9153,7 +9175,7 @@
         <v>32600</v>
       </c>
       <c r="K175" t="n">
-        <v>-27.27272727272727</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L175" t="n">
         <v>105830</v>
@@ -9204,7 +9226,7 @@
         <v>33000</v>
       </c>
       <c r="K176" t="n">
-        <v>-13.51351351351351</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L176" t="n">
         <v>105860</v>
@@ -9255,7 +9277,7 @@
         <v>33200</v>
       </c>
       <c r="K177" t="n">
-        <v>-13.51351351351351</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L177" t="n">
         <v>105870</v>
@@ -9306,7 +9328,7 @@
         <v>33200</v>
       </c>
       <c r="K178" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>105880</v>
@@ -9357,7 +9379,7 @@
         <v>33200</v>
       </c>
       <c r="K179" t="n">
-        <v>-13.33333333333333</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L179" t="n">
         <v>105880</v>
@@ -9408,7 +9430,7 @@
         <v>33400</v>
       </c>
       <c r="K180" t="n">
-        <v>-6.25</v>
+        <v>12.5</v>
       </c>
       <c r="L180" t="n">
         <v>105930</v>
@@ -9459,7 +9481,7 @@
         <v>33400</v>
       </c>
       <c r="K181" t="n">
-        <v>-13.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L181" t="n">
         <v>105950</v>
@@ -9510,7 +9532,7 @@
         <v>33400</v>
       </c>
       <c r="K182" t="n">
-        <v>-3.703703703703703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>105940</v>
@@ -9561,7 +9583,7 @@
         <v>33600</v>
       </c>
       <c r="K183" t="n">
-        <v>-3.703703703703703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L183" t="n">
         <v>105950</v>
@@ -9612,7 +9634,7 @@
         <v>33800</v>
       </c>
       <c r="K184" t="n">
-        <v>7.142857142857142</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>105980</v>
@@ -9663,7 +9685,7 @@
         <v>33800</v>
       </c>
       <c r="K185" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>106020</v>
@@ -9714,7 +9736,7 @@
         <v>33800</v>
       </c>
       <c r="K186" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>106020</v>
@@ -9765,7 +9787,7 @@
         <v>33800</v>
       </c>
       <c r="K187" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>106040</v>
@@ -9816,7 +9838,7 @@
         <v>33800</v>
       </c>
       <c r="K188" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>106060</v>
@@ -9867,7 +9889,7 @@
         <v>33900</v>
       </c>
       <c r="K189" t="n">
-        <v>3.703703703703703</v>
+        <v>-20</v>
       </c>
       <c r="L189" t="n">
         <v>106070</v>
@@ -9918,7 +9940,7 @@
         <v>33900</v>
       </c>
       <c r="K190" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L190" t="n">
         <v>106060</v>
@@ -9969,7 +9991,7 @@
         <v>33900</v>
       </c>
       <c r="K191" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L191" t="n">
         <v>106050</v>
@@ -10020,7 +10042,7 @@
         <v>34100</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L192" t="n">
         <v>106060</v>
@@ -10071,7 +10093,7 @@
         <v>34300</v>
       </c>
       <c r="K193" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L193" t="n">
         <v>106070</v>
@@ -10122,7 +10144,7 @@
         <v>34400</v>
       </c>
       <c r="K194" t="n">
-        <v>5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L194" t="n">
         <v>106050</v>
@@ -10173,7 +10195,7 @@
         <v>34800</v>
       </c>
       <c r="K195" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L195" t="n">
         <v>106070</v>
@@ -10224,7 +10246,7 @@
         <v>34800</v>
       </c>
       <c r="K196" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L196" t="n">
         <v>106090</v>
@@ -10275,7 +10297,7 @@
         <v>35000</v>
       </c>
       <c r="K197" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>106090</v>
@@ -10326,7 +10348,7 @@
         <v>35000</v>
       </c>
       <c r="K198" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L198" t="n">
         <v>106090</v>
@@ -10377,7 +10399,7 @@
         <v>35000</v>
       </c>
       <c r="K199" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L199" t="n">
         <v>106100</v>
@@ -10428,7 +10450,7 @@
         <v>35000</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L200" t="n">
         <v>106110</v>
@@ -10479,7 +10501,7 @@
         <v>35000</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L201" t="n">
         <v>106120</v>
@@ -10530,7 +10552,7 @@
         <v>35000</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L202" t="n">
         <v>106110</v>
@@ -10581,7 +10603,7 @@
         <v>35000</v>
       </c>
       <c r="K203" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L203" t="n">
         <v>106120</v>
@@ -10632,7 +10654,7 @@
         <v>35100</v>
       </c>
       <c r="K204" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L204" t="n">
         <v>106150</v>
@@ -10683,7 +10705,7 @@
         <v>35100</v>
       </c>
       <c r="K205" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>106140</v>
@@ -10887,7 +10909,7 @@
         <v>35300</v>
       </c>
       <c r="K209" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>106130</v>
@@ -10938,7 +10960,7 @@
         <v>35400</v>
       </c>
       <c r="K210" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L210" t="n">
         <v>106150</v>
@@ -10989,7 +11011,7 @@
         <v>36000</v>
       </c>
       <c r="K211" t="n">
-        <v>-14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L211" t="n">
         <v>106110</v>
@@ -11040,7 +11062,7 @@
         <v>36600</v>
       </c>
       <c r="K212" t="n">
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="L212" t="n">
         <v>106130</v>
@@ -11091,7 +11113,7 @@
         <v>36700</v>
       </c>
       <c r="K213" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>106140</v>
@@ -11142,7 +11164,7 @@
         <v>36800</v>
       </c>
       <c r="K214" t="n">
-        <v>16.66666666666666</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L214" t="n">
         <v>106150</v>
@@ -11193,7 +11215,7 @@
         <v>36900</v>
       </c>
       <c r="K215" t="n">
-        <v>4.761904761904762</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L215" t="n">
         <v>106170</v>
@@ -11244,7 +11266,7 @@
         <v>37200</v>
       </c>
       <c r="K216" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>106170</v>
@@ -11295,7 +11317,7 @@
         <v>37500</v>
       </c>
       <c r="K217" t="n">
-        <v>12</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L217" t="n">
         <v>106200</v>
@@ -11346,7 +11368,7 @@
         <v>37800</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="L218" t="n">
         <v>106200</v>
@@ -11397,7 +11419,7 @@
         <v>37800</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L219" t="n">
         <v>106190</v>
@@ -11448,7 +11470,7 @@
         <v>38000</v>
       </c>
       <c r="K220" t="n">
-        <v>-6.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="L220" t="n">
         <v>106150</v>
@@ -11499,7 +11521,7 @@
         <v>38300</v>
       </c>
       <c r="K221" t="n">
-        <v>3.03030303030303</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L221" t="n">
         <v>106200</v>
@@ -11550,7 +11572,7 @@
         <v>38500</v>
       </c>
       <c r="K222" t="n">
-        <v>-2.857142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L222" t="n">
         <v>106170</v>
@@ -11601,7 +11623,7 @@
         <v>38900</v>
       </c>
       <c r="K223" t="n">
-        <v>-12.82051282051282</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>106110</v>
@@ -11652,7 +11674,7 @@
         <v>39000</v>
       </c>
       <c r="K224" t="n">
-        <v>-12.82051282051282</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L224" t="n">
         <v>106050</v>
@@ -11703,7 +11725,7 @@
         <v>39000</v>
       </c>
       <c r="K225" t="n">
-        <v>-12.82051282051282</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L225" t="n">
         <v>105980</v>
@@ -11754,7 +11776,7 @@
         <v>39100</v>
       </c>
       <c r="K226" t="n">
-        <v>-12.82051282051282</v>
+        <v>-50</v>
       </c>
       <c r="L226" t="n">
         <v>105930</v>
@@ -11805,7 +11827,7 @@
         <v>39300</v>
       </c>
       <c r="K227" t="n">
-        <v>-7.317073170731707</v>
+        <v>-20</v>
       </c>
       <c r="L227" t="n">
         <v>105870</v>
@@ -11856,7 +11878,7 @@
         <v>39500</v>
       </c>
       <c r="K228" t="n">
-        <v>-11.62790697674419</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L228" t="n">
         <v>105820</v>
@@ -11907,7 +11929,7 @@
         <v>39500</v>
       </c>
       <c r="K229" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L229" t="n">
         <v>105770</v>
@@ -11958,7 +11980,7 @@
         <v>39900</v>
       </c>
       <c r="K230" t="n">
-        <v>-24.44444444444444</v>
+        <v>-62.5</v>
       </c>
       <c r="L230" t="n">
         <v>105700</v>
@@ -12009,7 +12031,7 @@
         <v>40100</v>
       </c>
       <c r="K231" t="n">
-        <v>-7.317073170731707</v>
+        <v>-37.5</v>
       </c>
       <c r="L231" t="n">
         <v>105620</v>
@@ -12060,7 +12082,7 @@
         <v>40200</v>
       </c>
       <c r="K232" t="n">
-        <v>-27.77777777777778</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L232" t="n">
         <v>105550</v>
@@ -12111,7 +12133,7 @@
         <v>40400</v>
       </c>
       <c r="K233" t="n">
-        <v>-18.91891891891892</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L233" t="n">
         <v>105540</v>
@@ -12162,7 +12184,7 @@
         <v>40500</v>
       </c>
       <c r="K234" t="n">
-        <v>-24.32432432432433</v>
+        <v>-20</v>
       </c>
       <c r="L234" t="n">
         <v>105510</v>
@@ -12213,7 +12235,7 @@
         <v>40700</v>
       </c>
       <c r="K235" t="n">
-        <v>-31.57894736842105</v>
+        <v>-25</v>
       </c>
       <c r="L235" t="n">
         <v>105460</v>
@@ -12264,7 +12286,7 @@
         <v>40800</v>
       </c>
       <c r="K236" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L236" t="n">
         <v>105430</v>
@@ -12315,7 +12337,7 @@
         <v>40900</v>
       </c>
       <c r="K237" t="n">
-        <v>-29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L237" t="n">
         <v>105390</v>
@@ -12366,7 +12388,7 @@
         <v>41400</v>
       </c>
       <c r="K238" t="n">
-        <v>-33.33333333333333</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L238" t="n">
         <v>105320</v>
@@ -12417,7 +12439,7 @@
         <v>41500</v>
       </c>
       <c r="K239" t="n">
-        <v>-35.13513513513514</v>
+        <v>-25</v>
       </c>
       <c r="L239" t="n">
         <v>105240</v>
@@ -12468,7 +12490,7 @@
         <v>41600</v>
       </c>
       <c r="K240" t="n">
-        <v>-33.33333333333333</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L240" t="n">
         <v>105190</v>
@@ -12519,7 +12541,7 @@
         <v>41600</v>
       </c>
       <c r="K241" t="n">
-        <v>-45.45454545454545</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L241" t="n">
         <v>105120</v>
@@ -12570,7 +12592,7 @@
         <v>41800</v>
       </c>
       <c r="K242" t="n">
-        <v>-45.45454545454545</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L242" t="n">
         <v>105040</v>
@@ -12621,7 +12643,7 @@
         <v>41800</v>
       </c>
       <c r="K243" t="n">
-        <v>-37.93103448275862</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L243" t="n">
         <v>104940</v>
@@ -12672,7 +12694,7 @@
         <v>41800</v>
       </c>
       <c r="K244" t="n">
-        <v>-42.85714285714285</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L244" t="n">
         <v>104850</v>
@@ -12723,7 +12745,7 @@
         <v>42100</v>
       </c>
       <c r="K245" t="n">
-        <v>-29.03225806451613</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L245" t="n">
         <v>104810</v>
@@ -12774,7 +12796,7 @@
         <v>42100</v>
       </c>
       <c r="K246" t="n">
-        <v>-26.66666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L246" t="n">
         <v>104760</v>
@@ -12825,7 +12847,7 @@
         <v>42300</v>
       </c>
       <c r="K247" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L247" t="n">
         <v>104680</v>
@@ -12876,7 +12898,7 @@
         <v>42400</v>
       </c>
       <c r="K248" t="n">
-        <v>-31.03448275862069</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L248" t="n">
         <v>104660</v>
@@ -12927,7 +12949,7 @@
         <v>42400</v>
       </c>
       <c r="K249" t="n">
-        <v>-31.03448275862069</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>104650</v>
@@ -12978,7 +13000,7 @@
         <v>42400</v>
       </c>
       <c r="K250" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>104650</v>
@@ -13029,7 +13051,7 @@
         <v>42600</v>
       </c>
       <c r="K251" t="n">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>104630</v>
@@ -13080,7 +13102,7 @@
         <v>42600</v>
       </c>
       <c r="K252" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>104630</v>
@@ -13131,7 +13153,7 @@
         <v>42600</v>
       </c>
       <c r="K253" t="n">
-        <v>-45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>104630</v>
@@ -13182,7 +13204,7 @@
         <v>42700</v>
       </c>
       <c r="K254" t="n">
-        <v>-45.45454545454545</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L254" t="n">
         <v>104620</v>
@@ -13233,7 +13255,7 @@
         <v>42700</v>
       </c>
       <c r="K255" t="n">
-        <v>-40</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L255" t="n">
         <v>104580</v>
@@ -13284,7 +13306,7 @@
         <v>42700</v>
       </c>
       <c r="K256" t="n">
-        <v>-47.36842105263158</v>
+        <v>-50</v>
       </c>
       <c r="L256" t="n">
         <v>104540</v>
@@ -13335,7 +13357,7 @@
         <v>42700</v>
       </c>
       <c r="K257" t="n">
-        <v>-55.55555555555556</v>
+        <v>-100</v>
       </c>
       <c r="L257" t="n">
         <v>104520</v>
@@ -13386,7 +13408,7 @@
         <v>43000</v>
       </c>
       <c r="K258" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>104520</v>
@@ -13437,7 +13459,7 @@
         <v>43100</v>
       </c>
       <c r="K259" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L259" t="n">
         <v>104510</v>
@@ -13488,7 +13510,7 @@
         <v>43300</v>
       </c>
       <c r="K260" t="n">
-        <v>5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L260" t="n">
         <v>104520</v>
@@ -13539,7 +13561,7 @@
         <v>43300</v>
       </c>
       <c r="K261" t="n">
-        <v>5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L261" t="n">
         <v>104550</v>
@@ -13641,7 +13663,7 @@
         <v>43900</v>
       </c>
       <c r="K263" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>104580</v>
@@ -13692,7 +13714,7 @@
         <v>44000</v>
       </c>
       <c r="K264" t="n">
-        <v>18.18181818181818</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L264" t="n">
         <v>104630</v>
@@ -13743,7 +13765,7 @@
         <v>44300</v>
       </c>
       <c r="K265" t="n">
-        <v>-9.090909090909092</v>
+        <v>12.5</v>
       </c>
       <c r="L265" t="n">
         <v>104650</v>
@@ -13794,7 +13816,7 @@
         <v>44700</v>
       </c>
       <c r="K266" t="n">
-        <v>7.692307692307693</v>
+        <v>30</v>
       </c>
       <c r="L266" t="n">
         <v>104710</v>
@@ -13845,7 +13867,7 @@
         <v>44700</v>
       </c>
       <c r="K267" t="n">
-        <v>16.66666666666666</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L267" t="n">
         <v>104770</v>
@@ -13896,7 +13918,7 @@
         <v>44800</v>
       </c>
       <c r="K268" t="n">
-        <v>8.333333333333332</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L268" t="n">
         <v>104790</v>
@@ -13947,7 +13969,7 @@
         <v>44900</v>
       </c>
       <c r="K269" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L269" t="n">
         <v>104830</v>
@@ -13998,7 +14020,7 @@
         <v>45000</v>
       </c>
       <c r="K270" t="n">
-        <v>7.692307692307693</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L270" t="n">
         <v>104840</v>
@@ -14049,7 +14071,7 @@
         <v>45100</v>
       </c>
       <c r="K271" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>104860</v>
@@ -14100,7 +14122,7 @@
         <v>45400</v>
       </c>
       <c r="K272" t="n">
-        <v>7.142857142857142</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L272" t="n">
         <v>104880</v>
@@ -14151,7 +14173,7 @@
         <v>45600</v>
       </c>
       <c r="K273" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L273" t="n">
         <v>104850</v>
@@ -14202,7 +14224,7 @@
         <v>45700</v>
       </c>
       <c r="K274" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>104820</v>
@@ -14253,7 +14275,7 @@
         <v>45900</v>
       </c>
       <c r="K275" t="n">
-        <v>12.5</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L275" t="n">
         <v>104840</v>
@@ -14304,7 +14326,7 @@
         <v>45900</v>
       </c>
       <c r="K276" t="n">
-        <v>12.5</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L276" t="n">
         <v>104820</v>
@@ -14355,7 +14377,7 @@
         <v>45900</v>
       </c>
       <c r="K277" t="n">
-        <v>12.5</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L277" t="n">
         <v>104800</v>
@@ -14406,7 +14428,7 @@
         <v>46200</v>
       </c>
       <c r="K278" t="n">
-        <v>-6.25</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L278" t="n">
         <v>104760</v>
@@ -14457,7 +14479,7 @@
         <v>46500</v>
       </c>
       <c r="K279" t="n">
-        <v>5.88235294117647</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L279" t="n">
         <v>104740</v>
@@ -14508,7 +14530,7 @@
         <v>46800</v>
       </c>
       <c r="K280" t="n">
-        <v>-8.571428571428571</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L280" t="n">
         <v>104700</v>
@@ -14559,7 +14581,7 @@
         <v>46900</v>
       </c>
       <c r="K281" t="n">
-        <v>-5.555555555555555</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L281" t="n">
         <v>104660</v>
@@ -14610,7 +14632,7 @@
         <v>47100</v>
       </c>
       <c r="K282" t="n">
-        <v>8.571428571428571</v>
+        <v>20</v>
       </c>
       <c r="L282" t="n">
         <v>104670</v>
@@ -14661,7 +14683,7 @@
         <v>47100</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L283" t="n">
         <v>104700</v>
@@ -14712,7 +14734,7 @@
         <v>47200</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L284" t="n">
         <v>104730</v>
@@ -14763,7 +14785,7 @@
         <v>47300</v>
       </c>
       <c r="K285" t="n">
-        <v>13.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L285" t="n">
         <v>104750</v>
@@ -14814,7 +14836,7 @@
         <v>47600</v>
       </c>
       <c r="K286" t="n">
-        <v>-10.3448275862069</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L286" t="n">
         <v>104740</v>
@@ -14865,7 +14887,7 @@
         <v>47800</v>
       </c>
       <c r="K287" t="n">
-        <v>-3.225806451612903</v>
+        <v>25</v>
       </c>
       <c r="L287" t="n">
         <v>104750</v>
@@ -14916,7 +14938,7 @@
         <v>47800</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L288" t="n">
         <v>104790</v>
@@ -14967,7 +14989,7 @@
         <v>47800</v>
       </c>
       <c r="K289" t="n">
-        <v>-3.448275862068965</v>
+        <v>40</v>
       </c>
       <c r="L289" t="n">
         <v>104800</v>
@@ -15018,7 +15040,7 @@
         <v>47800</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L290" t="n">
         <v>104840</v>
@@ -15069,7 +15091,7 @@
         <v>48200</v>
       </c>
       <c r="K291" t="n">
-        <v>9.67741935483871</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L291" t="n">
         <v>104910</v>
@@ -15120,7 +15142,7 @@
         <v>48400</v>
       </c>
       <c r="K292" t="n">
-        <v>13.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L292" t="n">
         <v>104940</v>
@@ -15171,7 +15193,7 @@
         <v>48700</v>
       </c>
       <c r="K293" t="n">
-        <v>29.03225806451613</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L293" t="n">
         <v>105000</v>
@@ -15222,7 +15244,7 @@
         <v>49000</v>
       </c>
       <c r="K294" t="n">
-        <v>15.15151515151515</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L294" t="n">
         <v>105020</v>
@@ -15273,7 +15295,7 @@
         <v>49400</v>
       </c>
       <c r="K295" t="n">
-        <v>20</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L295" t="n">
         <v>105070</v>
@@ -15324,7 +15346,7 @@
         <v>49600</v>
       </c>
       <c r="K296" t="n">
-        <v>13.51351351351351</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L296" t="n">
         <v>105130</v>
@@ -15375,7 +15397,7 @@
         <v>49800</v>
       </c>
       <c r="K297" t="n">
-        <v>17.94871794871795</v>
+        <v>30</v>
       </c>
       <c r="L297" t="n">
         <v>105190</v>
@@ -15426,7 +15448,7 @@
         <v>49900</v>
       </c>
       <c r="K298" t="n">
-        <v>24.32432432432433</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L298" t="n">
         <v>105240</v>
@@ -15477,7 +15499,7 @@
         <v>50000</v>
       </c>
       <c r="K299" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L299" t="n">
         <v>105300</v>
@@ -15528,7 +15550,7 @@
         <v>50300</v>
       </c>
       <c r="K300" t="n">
-        <v>20</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L300" t="n">
         <v>105330</v>
@@ -15579,7 +15601,7 @@
         <v>50400</v>
       </c>
       <c r="K301" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>105310</v>
@@ -15630,7 +15652,7 @@
         <v>50800</v>
       </c>
       <c r="K302" t="n">
-        <v>18.91891891891892</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L302" t="n">
         <v>105350</v>
@@ -15681,7 +15703,7 @@
         <v>51100</v>
       </c>
       <c r="K303" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>105390</v>
@@ -15732,7 +15754,7 @@
         <v>51300</v>
       </c>
       <c r="K304" t="n">
-        <v>26.82926829268293</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L304" t="n">
         <v>105480</v>
@@ -15783,7 +15805,7 @@
         <v>51400</v>
       </c>
       <c r="K305" t="n">
-        <v>21.95121951219512</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L305" t="n">
         <v>105520</v>
@@ -15834,7 +15856,7 @@
         <v>51500</v>
       </c>
       <c r="K306" t="n">
-        <v>33.33333333333333</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L306" t="n">
         <v>105590</v>
@@ -15885,7 +15907,7 @@
         <v>51500</v>
       </c>
       <c r="K307" t="n">
-        <v>29.72972972972973</v>
+        <v>37.5</v>
       </c>
       <c r="L307" t="n">
         <v>105640</v>
@@ -15936,7 +15958,7 @@
         <v>51600</v>
       </c>
       <c r="K308" t="n">
-        <v>26.31578947368421</v>
+        <v>25</v>
       </c>
       <c r="L308" t="n">
         <v>105690</v>
@@ -15987,7 +16009,7 @@
         <v>51900</v>
       </c>
       <c r="K309" t="n">
-        <v>31.70731707317073</v>
+        <v>62.5</v>
       </c>
       <c r="L309" t="n">
         <v>105760</v>
@@ -16038,7 +16060,7 @@
         <v>51900</v>
       </c>
       <c r="K310" t="n">
-        <v>31.70731707317073</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L310" t="n">
         <v>105860</v>
@@ -16089,7 +16111,7 @@
         <v>52000</v>
       </c>
       <c r="K311" t="n">
-        <v>21.05263157894737</v>
+        <v>50</v>
       </c>
       <c r="L311" t="n">
         <v>105960</v>
@@ -16140,7 +16162,7 @@
         <v>52200</v>
       </c>
       <c r="K312" t="n">
-        <v>31.57894736842105</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L312" t="n">
         <v>106040</v>
@@ -16191,7 +16213,7 @@
         <v>52200</v>
       </c>
       <c r="K313" t="n">
-        <v>25.71428571428571</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L313" t="n">
         <v>106090</v>
@@ -16293,7 +16315,7 @@
         <v>52400</v>
       </c>
       <c r="K315" t="n">
-        <v>26.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L315" t="n">
         <v>106150</v>
@@ -16344,7 +16366,7 @@
         <v>52400</v>
       </c>
       <c r="K316" t="n">
-        <v>35.71428571428572</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L316" t="n">
         <v>106180</v>
@@ -16395,7 +16417,7 @@
         <v>52500</v>
       </c>
       <c r="K317" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L317" t="n">
         <v>106220</v>
@@ -16446,7 +16468,7 @@
         <v>52500</v>
       </c>
       <c r="K318" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L318" t="n">
         <v>106270</v>
@@ -16497,7 +16519,7 @@
         <v>52500</v>
       </c>
       <c r="K319" t="n">
-        <v>36</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L319" t="n">
         <v>106290</v>
@@ -16548,7 +16570,7 @@
         <v>52500</v>
       </c>
       <c r="K320" t="n">
-        <v>54.54545454545454</v>
+        <v>60</v>
       </c>
       <c r="L320" t="n">
         <v>106310</v>
@@ -16599,7 +16621,7 @@
         <v>52600</v>
       </c>
       <c r="K321" t="n">
-        <v>54.54545454545454</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>106330</v>
@@ -16650,7 +16672,7 @@
         <v>52900</v>
       </c>
       <c r="K322" t="n">
-        <v>23.80952380952381</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L322" t="n">
         <v>106300</v>
@@ -16701,7 +16723,7 @@
         <v>52900</v>
       </c>
       <c r="K323" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L323" t="n">
         <v>106270</v>
@@ -16752,7 +16774,7 @@
         <v>53000</v>
       </c>
       <c r="K324" t="n">
-        <v>-5.88235294117647</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L324" t="n">
         <v>106240</v>
@@ -16803,7 +16825,7 @@
         <v>53000</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L325" t="n">
         <v>106200</v>
@@ -16854,7 +16876,7 @@
         <v>53000</v>
       </c>
       <c r="K326" t="n">
-        <v>-6.666666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L326" t="n">
         <v>106160</v>
@@ -16905,7 +16927,7 @@
         <v>53000</v>
       </c>
       <c r="K327" t="n">
-        <v>-6.666666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L327" t="n">
         <v>106110</v>
@@ -16956,7 +16978,7 @@
         <v>53600</v>
       </c>
       <c r="K328" t="n">
-        <v>30</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L328" t="n">
         <v>106120</v>
@@ -17007,7 +17029,7 @@
         <v>53600</v>
       </c>
       <c r="K329" t="n">
-        <v>17.64705882352941</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L329" t="n">
         <v>106130</v>
@@ -17058,7 +17080,7 @@
         <v>53800</v>
       </c>
       <c r="K330" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L330" t="n">
         <v>106160</v>
@@ -17109,7 +17131,7 @@
         <v>53900</v>
       </c>
       <c r="K331" t="n">
-        <v>36.84210526315789</v>
+        <v>80</v>
       </c>
       <c r="L331" t="n">
         <v>106210</v>
@@ -17160,7 +17182,7 @@
         <v>54100</v>
       </c>
       <c r="K332" t="n">
-        <v>36.84210526315789</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L332" t="n">
         <v>106310</v>
@@ -17211,7 +17233,7 @@
         <v>54200</v>
       </c>
       <c r="K333" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L333" t="n">
         <v>106420</v>
@@ -17262,7 +17284,7 @@
         <v>54300</v>
       </c>
       <c r="K334" t="n">
-        <v>40</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L334" t="n">
         <v>106530</v>
@@ -17313,7 +17335,7 @@
         <v>54400</v>
       </c>
       <c r="K335" t="n">
-        <v>40</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L335" t="n">
         <v>106650</v>
@@ -17364,7 +17386,7 @@
         <v>56200</v>
       </c>
       <c r="K336" t="n">
-        <v>68.42105263157895</v>
+        <v>93.75</v>
       </c>
       <c r="L336" t="n">
         <v>106950</v>
@@ -17415,7 +17437,7 @@
         <v>57100</v>
       </c>
       <c r="K337" t="n">
-        <v>34.78260869565217</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L337" t="n">
         <v>107160</v>
@@ -17466,7 +17488,7 @@
         <v>57800</v>
       </c>
       <c r="K338" t="n">
-        <v>43.39622641509434</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L338" t="n">
         <v>107380</v>
@@ -17517,7 +17539,7 @@
         <v>57900</v>
       </c>
       <c r="K339" t="n">
-        <v>40.74074074074074</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L339" t="n">
         <v>107590</v>
@@ -17568,7 +17590,7 @@
         <v>58500</v>
       </c>
       <c r="K340" t="n">
-        <v>46.66666666666666</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="L340" t="n">
         <v>107840</v>
@@ -17619,7 +17641,7 @@
         <v>59300</v>
       </c>
       <c r="K341" t="n">
-        <v>55.22388059701493</v>
+        <v>57.69230769230769</v>
       </c>
       <c r="L341" t="n">
         <v>108160</v>
@@ -17670,7 +17692,7 @@
         <v>59300</v>
       </c>
       <c r="K342" t="n">
-        <v>62.5</v>
+        <v>56.86274509803921</v>
       </c>
       <c r="L342" t="n">
         <v>108460</v>
@@ -17721,7 +17743,7 @@
         <v>60000</v>
       </c>
       <c r="K343" t="n">
-        <v>46.47887323943662</v>
+        <v>40.35087719298245</v>
       </c>
       <c r="L343" t="n">
         <v>108680</v>
@@ -17772,7 +17794,7 @@
         <v>60100</v>
       </c>
       <c r="K344" t="n">
-        <v>46.47887323943662</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L344" t="n">
         <v>108900</v>
@@ -17823,7 +17845,7 @@
         <v>60900</v>
       </c>
       <c r="K345" t="n">
-        <v>51.89873417721519</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="L345" t="n">
         <v>109190</v>
@@ -17874,7 +17896,7 @@
         <v>61200</v>
       </c>
       <c r="K346" t="n">
-        <v>53.65853658536586</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="L346" t="n">
         <v>109330</v>
@@ -17925,7 +17947,7 @@
         <v>61600</v>
       </c>
       <c r="K347" t="n">
-        <v>55.81395348837209</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L347" t="n">
         <v>109600</v>
@@ -17976,7 +17998,7 @@
         <v>61800</v>
       </c>
       <c r="K348" t="n">
-        <v>53.65853658536586</v>
+        <v>58.97435897435898</v>
       </c>
       <c r="L348" t="n">
         <v>109820</v>
@@ -18027,7 +18049,7 @@
         <v>62200</v>
       </c>
       <c r="K349" t="n">
-        <v>46.51162790697674</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L349" t="n">
         <v>110010</v>
@@ -18078,7 +18100,7 @@
         <v>62400</v>
       </c>
       <c r="K350" t="n">
-        <v>41.86046511627907</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L350" t="n">
         <v>110120</v>
@@ -18129,7 +18151,7 @@
         <v>62700</v>
       </c>
       <c r="K351" t="n">
-        <v>36.36363636363637</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>110120</v>
@@ -18180,7 +18202,7 @@
         <v>63100</v>
       </c>
       <c r="K352" t="n">
-        <v>37.77777777777778</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L352" t="n">
         <v>110160</v>
@@ -18231,7 +18253,7 @@
         <v>63500</v>
       </c>
       <c r="K353" t="n">
-        <v>31.18279569892473</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L353" t="n">
         <v>110230</v>
@@ -18282,7 +18304,7 @@
         <v>63900</v>
       </c>
       <c r="K354" t="n">
-        <v>27.08333333333333</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L354" t="n">
         <v>110270</v>
@@ -18333,7 +18355,7 @@
         <v>64200</v>
       </c>
       <c r="K355" t="n">
-        <v>28.57142857142857</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>110260</v>
@@ -18384,7 +18406,7 @@
         <v>64300</v>
       </c>
       <c r="K356" t="n">
-        <v>13.58024691358025</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L356" t="n">
         <v>110230</v>
@@ -18435,7 +18457,7 @@
         <v>64400</v>
       </c>
       <c r="K357" t="n">
-        <v>26.02739726027397</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L357" t="n">
         <v>110150</v>
@@ -18486,7 +18508,7 @@
         <v>64400</v>
       </c>
       <c r="K358" t="n">
-        <v>18.18181818181818</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L358" t="n">
         <v>110050</v>
@@ -18537,7 +18559,7 @@
         <v>64500</v>
       </c>
       <c r="K359" t="n">
-        <v>18.18181818181818</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L359" t="n">
         <v>109980</v>
@@ -18588,7 +18610,7 @@
         <v>64600</v>
       </c>
       <c r="K360" t="n">
-        <v>8.196721311475409</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L360" t="n">
         <v>109920</v>
@@ -18639,7 +18661,7 @@
         <v>64800</v>
       </c>
       <c r="K361" t="n">
-        <v>-9.090909090909092</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L361" t="n">
         <v>109870</v>
@@ -18690,7 +18712,7 @@
         <v>64800</v>
       </c>
       <c r="K362" t="n">
-        <v>-9.090909090909092</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L362" t="n">
         <v>109780</v>
@@ -18741,7 +18763,7 @@
         <v>65500</v>
       </c>
       <c r="K363" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L363" t="n">
         <v>109660</v>
@@ -18792,7 +18814,7 @@
         <v>65700</v>
       </c>
       <c r="K364" t="n">
-        <v>-3.571428571428571</v>
+        <v>-60</v>
       </c>
       <c r="L364" t="n">
         <v>109600</v>
@@ -18843,7 +18865,7 @@
         <v>65700</v>
       </c>
       <c r="K365" t="n">
-        <v>-20.83333333333334</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L365" t="n">
         <v>109510</v>
@@ -18894,7 +18916,7 @@
         <v>65900</v>
       </c>
       <c r="K366" t="n">
-        <v>-31.91489361702128</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L366" t="n">
         <v>109390</v>
@@ -18945,7 +18967,7 @@
         <v>65900</v>
       </c>
       <c r="K367" t="n">
-        <v>-44.18604651162791</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L367" t="n">
         <v>109280</v>
@@ -18996,7 +19018,7 @@
         <v>66000</v>
       </c>
       <c r="K368" t="n">
-        <v>-47.61904761904761</v>
+        <v>-60</v>
       </c>
       <c r="L368" t="n">
         <v>109180</v>
@@ -19047,7 +19069,7 @@
         <v>66000</v>
       </c>
       <c r="K369" t="n">
-        <v>-42.10526315789473</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L369" t="n">
         <v>109090</v>
@@ -19098,7 +19120,7 @@
         <v>66200</v>
       </c>
       <c r="K370" t="n">
-        <v>-42.10526315789473</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L370" t="n">
         <v>108990</v>
@@ -19149,7 +19171,7 @@
         <v>66200</v>
       </c>
       <c r="K371" t="n">
-        <v>-37.14285714285715</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L371" t="n">
         <v>108910</v>
@@ -19200,7 +19222,7 @@
         <v>66300</v>
       </c>
       <c r="K372" t="n">
-        <v>-56.25</v>
+        <v>-25</v>
       </c>
       <c r="L372" t="n">
         <v>108820</v>
@@ -19251,7 +19273,7 @@
         <v>66400</v>
       </c>
       <c r="K373" t="n">
-        <v>-51.72413793103448</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L373" t="n">
         <v>108790</v>
@@ -19302,7 +19324,7 @@
         <v>67000</v>
       </c>
       <c r="K374" t="n">
-        <v>-16.12903225806452</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L374" t="n">
         <v>108800</v>
@@ -19353,7 +19375,7 @@
         <v>67300</v>
       </c>
       <c r="K375" t="n">
-        <v>-16.12903225806452</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L375" t="n">
         <v>108840</v>
@@ -19404,7 +19426,7 @@
         <v>67800</v>
       </c>
       <c r="K376" t="n">
-        <v>-2.857142857142857</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L376" t="n">
         <v>108950</v>
@@ -19455,7 +19477,7 @@
         <v>68100</v>
       </c>
       <c r="K377" t="n">
-        <v>8.108108108108109</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L377" t="n">
         <v>109090</v>
@@ -19506,7 +19528,7 @@
         <v>68200</v>
       </c>
       <c r="K378" t="n">
-        <v>10.52631578947368</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L378" t="n">
         <v>109230</v>
@@ -19557,7 +19579,7 @@
         <v>68300</v>
       </c>
       <c r="K379" t="n">
-        <v>10.52631578947368</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L379" t="n">
         <v>109360</v>
@@ -19608,7 +19630,7 @@
         <v>68300</v>
       </c>
       <c r="K380" t="n">
-        <v>13.51351351351351</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L380" t="n">
         <v>109510</v>
@@ -19659,7 +19681,7 @@
         <v>68400</v>
       </c>
       <c r="K381" t="n">
-        <v>16.66666666666666</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L381" t="n">
         <v>109650</v>
@@ -19710,7 +19732,7 @@
         <v>68900</v>
       </c>
       <c r="K382" t="n">
-        <v>2.439024390243902</v>
+        <v>44</v>
       </c>
       <c r="L382" t="n">
         <v>109750</v>
@@ -19761,7 +19783,7 @@
         <v>69100</v>
       </c>
       <c r="K383" t="n">
-        <v>27.77777777777778</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L383" t="n">
         <v>109880</v>
@@ -19812,7 +19834,7 @@
         <v>69700</v>
       </c>
       <c r="K384" t="n">
-        <v>35</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L384" t="n">
         <v>110010</v>
@@ -19863,7 +19885,7 @@
         <v>69700</v>
       </c>
       <c r="K385" t="n">
-        <v>35</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L385" t="n">
         <v>110110</v>
@@ -19914,7 +19936,7 @@
         <v>69800</v>
       </c>
       <c r="K386" t="n">
-        <v>38.46153846153847</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L386" t="n">
         <v>110150</v>
@@ -19965,7 +19987,7 @@
         <v>70000</v>
       </c>
       <c r="K387" t="n">
-        <v>41.46341463414634</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L387" t="n">
         <v>110180</v>
@@ -20016,7 +20038,7 @@
         <v>70000</v>
       </c>
       <c r="K388" t="n">
-        <v>40</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L388" t="n">
         <v>110200</v>
@@ -20067,7 +20089,7 @@
         <v>70200</v>
       </c>
       <c r="K389" t="n">
-        <v>33.33333333333333</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L389" t="n">
         <v>110210</v>
@@ -20118,7 +20140,7 @@
         <v>70500</v>
       </c>
       <c r="K390" t="n">
-        <v>30.23255813953488</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L390" t="n">
         <v>110190</v>
@@ -20169,7 +20191,7 @@
         <v>70500</v>
       </c>
       <c r="K391" t="n">
-        <v>30.23255813953488</v>
+        <v>25</v>
       </c>
       <c r="L391" t="n">
         <v>110180</v>
@@ -20220,7 +20242,7 @@
         <v>70500</v>
       </c>
       <c r="K392" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L392" t="n">
         <v>110220</v>
@@ -20271,7 +20293,7 @@
         <v>70700</v>
       </c>
       <c r="K393" t="n">
-        <v>30.23255813953488</v>
+        <v>-60</v>
       </c>
       <c r="L393" t="n">
         <v>110220</v>
@@ -20322,7 +20344,7 @@
         <v>71000</v>
       </c>
       <c r="K394" t="n">
-        <v>25</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L394" t="n">
         <v>110190</v>
@@ -20373,7 +20395,7 @@
         <v>71200</v>
       </c>
       <c r="K395" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>110180</v>
@@ -20424,7 +20446,7 @@
         <v>71200</v>
       </c>
       <c r="K396" t="n">
-        <v>11.76470588235294</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L396" t="n">
         <v>110180</v>
@@ -20475,7 +20497,7 @@
         <v>71600</v>
       </c>
       <c r="K397" t="n">
-        <v>-8.571428571428571</v>
+        <v>-37.5</v>
       </c>
       <c r="L397" t="n">
         <v>110120</v>
@@ -20526,7 +20548,7 @@
         <v>71700</v>
       </c>
       <c r="K398" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L398" t="n">
         <v>110050</v>
@@ -20577,7 +20599,7 @@
         <v>72100</v>
       </c>
       <c r="K399" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L399" t="n">
         <v>110040</v>
@@ -20628,7 +20650,7 @@
         <v>72400</v>
       </c>
       <c r="K400" t="n">
-        <v>-7.317073170731707</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L400" t="n">
         <v>110030</v>
@@ -20679,7 +20701,7 @@
         <v>72400</v>
       </c>
       <c r="K401" t="n">
-        <v>-5</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L401" t="n">
         <v>110020</v>
@@ -20730,7 +20752,7 @@
         <v>72400</v>
       </c>
       <c r="K402" t="n">
-        <v>8.571428571428571</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L402" t="n">
         <v>110010</v>
@@ -20781,7 +20803,7 @@
         <v>72500</v>
       </c>
       <c r="K403" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L403" t="n">
         <v>110010</v>
@@ -20832,7 +20854,7 @@
         <v>72500</v>
       </c>
       <c r="K404" t="n">
-        <v>-21.42857142857143</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L404" t="n">
         <v>109980</v>
@@ -20883,7 +20905,7 @@
         <v>73200</v>
       </c>
       <c r="K405" t="n">
-        <v>-37.14285714285715</v>
+        <v>-60</v>
       </c>
       <c r="L405" t="n">
         <v>109860</v>
@@ -20934,7 +20956,7 @@
         <v>73200</v>
       </c>
       <c r="K406" t="n">
-        <v>-35.29411764705883</v>
+        <v>-50</v>
       </c>
       <c r="L406" t="n">
         <v>109740</v>
@@ -20985,7 +21007,7 @@
         <v>73200</v>
       </c>
       <c r="K407" t="n">
-        <v>-43.75</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L407" t="n">
         <v>109660</v>
@@ -21036,7 +21058,7 @@
         <v>73300</v>
       </c>
       <c r="K408" t="n">
-        <v>-45.45454545454545</v>
+        <v>-100</v>
       </c>
       <c r="L408" t="n">
         <v>109580</v>
@@ -21087,7 +21109,7 @@
         <v>73400</v>
       </c>
       <c r="K409" t="n">
-        <v>-43.75</v>
+        <v>-100</v>
       </c>
       <c r="L409" t="n">
         <v>109450</v>
@@ -21138,7 +21160,7 @@
         <v>73600</v>
       </c>
       <c r="K410" t="n">
-        <v>-41.93548387096774</v>
+        <v>-100</v>
       </c>
       <c r="L410" t="n">
         <v>109330</v>
@@ -21189,7 +21211,7 @@
         <v>74000</v>
       </c>
       <c r="K411" t="n">
-        <v>-25.71428571428571</v>
+        <v>-50</v>
       </c>
       <c r="L411" t="n">
         <v>109250</v>
@@ -21240,7 +21262,7 @@
         <v>74000</v>
       </c>
       <c r="K412" t="n">
-        <v>-25.71428571428571</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L412" t="n">
         <v>109170</v>
@@ -21291,7 +21313,7 @@
         <v>74100</v>
       </c>
       <c r="K413" t="n">
-        <v>-17.64705882352941</v>
+        <v>-37.5</v>
       </c>
       <c r="L413" t="n">
         <v>109110</v>
@@ -21342,7 +21364,7 @@
         <v>74300</v>
       </c>
       <c r="K414" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L414" t="n">
         <v>109030</v>
@@ -21393,7 +21415,7 @@
         <v>74300</v>
       </c>
       <c r="K415" t="n">
-        <v>-41.93548387096774</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L415" t="n">
         <v>109020</v>
@@ -21444,7 +21466,7 @@
         <v>74300</v>
       </c>
       <c r="K416" t="n">
-        <v>-41.93548387096774</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L416" t="n">
         <v>109010</v>
@@ -21495,7 +21517,7 @@
         <v>74500</v>
       </c>
       <c r="K417" t="n">
-        <v>-24.13793103448276</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L417" t="n">
         <v>109020</v>
@@ -21546,7 +21568,7 @@
         <v>74600</v>
       </c>
       <c r="K418" t="n">
-        <v>-17.24137931034483</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L418" t="n">
         <v>109050</v>
@@ -21597,7 +21619,7 @@
         <v>74900</v>
       </c>
       <c r="K419" t="n">
-        <v>-42.85714285714285</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L419" t="n">
         <v>109060</v>
@@ -21648,7 +21670,7 @@
         <v>75000</v>
       </c>
       <c r="K420" t="n">
-        <v>-38.46153846153847</v>
+        <v>-20</v>
       </c>
       <c r="L420" t="n">
         <v>109080</v>
@@ -21699,7 +21721,7 @@
         <v>75100</v>
       </c>
       <c r="K421" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L421" t="n">
         <v>109070</v>
@@ -21750,7 +21772,7 @@
         <v>75200</v>
       </c>
       <c r="K422" t="n">
-        <v>-28.57142857142857</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L422" t="n">
         <v>109070</v>
@@ -21801,7 +21823,7 @@
         <v>75400</v>
       </c>
       <c r="K423" t="n">
-        <v>-17.24137931034483</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L423" t="n">
         <v>109080</v>
@@ -21852,7 +21874,7 @@
         <v>75400</v>
       </c>
       <c r="K424" t="n">
-        <v>-17.24137931034483</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L424" t="n">
         <v>109110</v>
@@ -21903,7 +21925,7 @@
         <v>75800</v>
       </c>
       <c r="K425" t="n">
-        <v>23.07692307692308</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L425" t="n">
         <v>109180</v>
@@ -21954,7 +21976,7 @@
         <v>76000</v>
       </c>
       <c r="K426" t="n">
-        <v>28.57142857142857</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L426" t="n">
         <v>109270</v>
@@ -22005,7 +22027,7 @@
         <v>76000</v>
       </c>
       <c r="K427" t="n">
-        <v>28.57142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L427" t="n">
         <v>109340</v>
@@ -22056,7 +22078,7 @@
         <v>76100</v>
       </c>
       <c r="K428" t="n">
-        <v>35.71428571428572</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L428" t="n">
         <v>109410</v>
@@ -22107,7 +22129,7 @@
         <v>76200</v>
       </c>
       <c r="K429" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L429" t="n">
         <v>109520</v>
@@ -22158,7 +22180,7 @@
         <v>76500</v>
       </c>
       <c r="K430" t="n">
-        <v>37.93103448275862</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L430" t="n">
         <v>109610</v>
@@ -22209,7 +22231,7 @@
         <v>76700</v>
       </c>
       <c r="K431" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L431" t="n">
         <v>109710</v>
@@ -22260,7 +22282,7 @@
         <v>76700</v>
       </c>
       <c r="K432" t="n">
-        <v>33.33333333333333</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L432" t="n">
         <v>109800</v>
@@ -22311,7 +22333,7 @@
         <v>77000</v>
       </c>
       <c r="K433" t="n">
-        <v>37.93103448275862</v>
+        <v>62.5</v>
       </c>
       <c r="L433" t="n">
         <v>109900</v>
@@ -22362,7 +22384,7 @@
         <v>77200</v>
       </c>
       <c r="K434" t="n">
-        <v>51.72413793103448</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L434" t="n">
         <v>110020</v>
@@ -22413,7 +22435,7 @@
         <v>77400</v>
       </c>
       <c r="K435" t="n">
-        <v>41.93548387096774</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L435" t="n">
         <v>110080</v>
@@ -22464,7 +22486,7 @@
         <v>77400</v>
       </c>
       <c r="K436" t="n">
-        <v>41.93548387096774</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L436" t="n">
         <v>110120</v>
@@ -22515,7 +22537,7 @@
         <v>77700</v>
       </c>
       <c r="K437" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L437" t="n">
         <v>110130</v>
@@ -22566,7 +22588,7 @@
         <v>77800</v>
       </c>
       <c r="K438" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>110140</v>
@@ -22617,7 +22639,7 @@
         <v>77900</v>
       </c>
       <c r="K439" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L439" t="n">
         <v>110130</v>
@@ -22668,7 +22690,7 @@
         <v>77900</v>
       </c>
       <c r="K440" t="n">
-        <v>37.93103448275862</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>110150</v>
@@ -22719,7 +22741,7 @@
         <v>77900</v>
       </c>
       <c r="K441" t="n">
-        <v>35.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>110150</v>
@@ -22770,7 +22792,7 @@
         <v>78000</v>
       </c>
       <c r="K442" t="n">
-        <v>35.71428571428572</v>
+        <v>-20</v>
       </c>
       <c r="L442" t="n">
         <v>110160</v>
@@ -22821,7 +22843,7 @@
         <v>78000</v>
       </c>
       <c r="K443" t="n">
-        <v>30.76923076923077</v>
+        <v>-50</v>
       </c>
       <c r="L443" t="n">
         <v>110140</v>
@@ -22872,7 +22894,7 @@
         <v>78100</v>
       </c>
       <c r="K444" t="n">
-        <v>25.92592592592592</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L444" t="n">
         <v>110090</v>
@@ -22923,7 +22945,7 @@
         <v>78100</v>
       </c>
       <c r="K445" t="n">
-        <v>13.04347826086956</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L445" t="n">
         <v>110060</v>
@@ -22974,7 +22996,7 @@
         <v>78100</v>
       </c>
       <c r="K446" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L446" t="n">
         <v>110030</v>
@@ -23025,7 +23047,7 @@
         <v>78900</v>
       </c>
       <c r="K447" t="n">
-        <v>-24.13793103448276</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L447" t="n">
         <v>109950</v>
@@ -23076,7 +23098,7 @@
         <v>79400</v>
       </c>
       <c r="K448" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L448" t="n">
         <v>109910</v>
@@ -23127,7 +23149,7 @@
         <v>79900</v>
       </c>
       <c r="K449" t="n">
-        <v>-24.32432432432433</v>
+        <v>-40</v>
       </c>
       <c r="L449" t="n">
         <v>109830</v>
@@ -23178,7 +23200,7 @@
         <v>79900</v>
       </c>
       <c r="K450" t="n">
-        <v>-17.64705882352941</v>
+        <v>-40</v>
       </c>
       <c r="L450" t="n">
         <v>109750</v>
@@ -23229,7 +23251,7 @@
         <v>79900</v>
       </c>
       <c r="K451" t="n">
-        <v>-25</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L451" t="n">
         <v>109670</v>
@@ -23280,7 +23302,7 @@
         <v>80200</v>
       </c>
       <c r="K452" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L452" t="n">
         <v>109610</v>
@@ -23331,7 +23353,7 @@
         <v>80300</v>
       </c>
       <c r="K453" t="n">
-        <v>-21.21212121212121</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L453" t="n">
         <v>109560</v>
@@ -23382,7 +23404,7 @@
         <v>80400</v>
       </c>
       <c r="K454" t="n">
-        <v>-25</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L454" t="n">
         <v>109530</v>
@@ -23433,7 +23455,7 @@
         <v>80500</v>
       </c>
       <c r="K455" t="n">
-        <v>-16.12903225806452</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L455" t="n">
         <v>109510</v>
@@ -23484,7 +23506,7 @@
         <v>80500</v>
       </c>
       <c r="K456" t="n">
-        <v>-16.12903225806452</v>
+        <v>37.5</v>
       </c>
       <c r="L456" t="n">
         <v>109490</v>
@@ -23535,7 +23557,7 @@
         <v>80600</v>
       </c>
       <c r="K457" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>109540</v>
@@ -23586,7 +23608,7 @@
         <v>81000</v>
       </c>
       <c r="K458" t="n">
-        <v>-25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L458" t="n">
         <v>109500</v>
@@ -23637,7 +23659,7 @@
         <v>81500</v>
       </c>
       <c r="K459" t="n">
-        <v>-5.555555555555555</v>
+        <v>37.5</v>
       </c>
       <c r="L459" t="n">
         <v>109560</v>
@@ -23688,7 +23710,7 @@
         <v>81600</v>
       </c>
       <c r="K460" t="n">
-        <v>-2.702702702702703</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L460" t="n">
         <v>109630</v>
@@ -23739,7 +23761,7 @@
         <v>81900</v>
       </c>
       <c r="K461" t="n">
-        <v>-10</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L461" t="n">
         <v>109670</v>
@@ -23790,7 +23812,7 @@
         <v>82000</v>
       </c>
       <c r="K462" t="n">
-        <v>-15</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L462" t="n">
         <v>109670</v>
@@ -23841,7 +23863,7 @@
         <v>82000</v>
       </c>
       <c r="K463" t="n">
-        <v>-15</v>
+        <v>-12.5</v>
       </c>
       <c r="L463" t="n">
         <v>109660</v>
@@ -23892,7 +23914,7 @@
         <v>82000</v>
       </c>
       <c r="K464" t="n">
-        <v>-12.82051282051282</v>
+        <v>-20</v>
       </c>
       <c r="L464" t="n">
         <v>109640</v>
@@ -23943,7 +23965,7 @@
         <v>82100</v>
       </c>
       <c r="K465" t="n">
-        <v>-10</v>
+        <v>-12.5</v>
       </c>
       <c r="L465" t="n">
         <v>109620</v>
@@ -23994,7 +24016,7 @@
         <v>82200</v>
       </c>
       <c r="K466" t="n">
-        <v>-12.19512195121951</v>
+        <v>-12.5</v>
       </c>
       <c r="L466" t="n">
         <v>109590</v>
@@ -24045,7 +24067,7 @@
         <v>82200</v>
       </c>
       <c r="K467" t="n">
-        <v>9.090909090909092</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L467" t="n">
         <v>109570</v>
@@ -24096,7 +24118,7 @@
         <v>82200</v>
       </c>
       <c r="K468" t="n">
-        <v>-7.142857142857142</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L468" t="n">
         <v>109590</v>
@@ -24147,7 +24169,7 @@
         <v>82300</v>
       </c>
       <c r="K469" t="n">
-        <v>8.333333333333332</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L469" t="n">
         <v>109550</v>
@@ -24198,7 +24220,7 @@
         <v>82400</v>
       </c>
       <c r="K470" t="n">
-        <v>12</v>
+        <v>-20</v>
       </c>
       <c r="L470" t="n">
         <v>109510</v>
@@ -24249,7 +24271,7 @@
         <v>82400</v>
       </c>
       <c r="K471" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>109500</v>
@@ -24351,7 +24373,7 @@
         <v>82700</v>
       </c>
       <c r="K473" t="n">
-        <v>8.333333333333332</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L473" t="n">
         <v>109530</v>
@@ -24402,7 +24424,7 @@
         <v>82700</v>
       </c>
       <c r="K474" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L474" t="n">
         <v>109560</v>
@@ -24453,7 +24475,7 @@
         <v>82700</v>
       </c>
       <c r="K475" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L475" t="n">
         <v>109580</v>
@@ -24504,7 +24526,7 @@
         <v>82800</v>
       </c>
       <c r="K476" t="n">
-        <v>4.347826086956522</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L476" t="n">
         <v>109620</v>
@@ -24555,7 +24577,7 @@
         <v>82900</v>
       </c>
       <c r="K477" t="n">
-        <v>13.04347826086956</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L477" t="n">
         <v>109670</v>
@@ -24606,7 +24628,7 @@
         <v>83000</v>
       </c>
       <c r="K478" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L478" t="n">
         <v>109730</v>
@@ -24657,7 +24679,7 @@
         <v>83000</v>
       </c>
       <c r="K479" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L479" t="n">
         <v>109800</v>
@@ -24708,7 +24730,7 @@
         <v>83100</v>
       </c>
       <c r="K480" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L480" t="n">
         <v>109870</v>
@@ -24759,7 +24781,7 @@
         <v>83100</v>
       </c>
       <c r="K481" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L481" t="n">
         <v>109940</v>
@@ -24810,7 +24832,7 @@
         <v>83300</v>
       </c>
       <c r="K482" t="n">
-        <v>69.23076923076923</v>
+        <v>100</v>
       </c>
       <c r="L482" t="n">
         <v>110030</v>
@@ -24861,7 +24883,7 @@
         <v>83500</v>
       </c>
       <c r="K483" t="n">
-        <v>46.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L483" t="n">
         <v>110070</v>
@@ -24912,7 +24934,7 @@
         <v>83600</v>
       </c>
       <c r="K484" t="n">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L484" t="n">
         <v>110100</v>
@@ -24963,7 +24985,7 @@
         <v>83600</v>
       </c>
       <c r="K485" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L485" t="n">
         <v>110130</v>
@@ -25014,7 +25036,7 @@
         <v>83600</v>
       </c>
       <c r="K486" t="n">
-        <v>42.85714285714285</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L486" t="n">
         <v>110150</v>
@@ -25065,7 +25087,7 @@
         <v>83800</v>
       </c>
       <c r="K487" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L487" t="n">
         <v>110180</v>
@@ -25116,7 +25138,7 @@
         <v>83800</v>
       </c>
       <c r="K488" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L488" t="n">
         <v>110200</v>
@@ -25167,7 +25189,7 @@
         <v>84300</v>
       </c>
       <c r="K489" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L489" t="n">
         <v>110270</v>
@@ -25218,7 +25240,7 @@
         <v>84600</v>
       </c>
       <c r="K490" t="n">
-        <v>72.72727272727273</v>
+        <v>60</v>
       </c>
       <c r="L490" t="n">
         <v>110360</v>
@@ -25269,7 +25291,7 @@
         <v>84800</v>
       </c>
       <c r="K491" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L491" t="n">
         <v>110470</v>
@@ -25320,7 +25342,7 @@
         <v>84800</v>
       </c>
       <c r="K492" t="n">
-        <v>75</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L492" t="n">
         <v>110560</v>
@@ -25371,7 +25393,7 @@
         <v>85000</v>
       </c>
       <c r="K493" t="n">
-        <v>73.91304347826086</v>
+        <v>100</v>
       </c>
       <c r="L493" t="n">
         <v>110690</v>
@@ -25422,7 +25444,7 @@
         <v>85200</v>
       </c>
       <c r="K494" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L494" t="n">
         <v>110810</v>
@@ -25473,7 +25495,7 @@
         <v>85200</v>
       </c>
       <c r="K495" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L495" t="n">
         <v>110930</v>
@@ -25524,7 +25546,7 @@
         <v>85400</v>
       </c>
       <c r="K496" t="n">
-        <v>46.15384615384615</v>
+        <v>50</v>
       </c>
       <c r="L496" t="n">
         <v>111030</v>
@@ -25575,7 +25597,7 @@
         <v>85500</v>
       </c>
       <c r="K497" t="n">
-        <v>38.46153846153847</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L497" t="n">
         <v>111100</v>
@@ -25626,7 +25648,7 @@
         <v>85500</v>
       </c>
       <c r="K498" t="n">
-        <v>36</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L498" t="n">
         <v>111170</v>
@@ -25677,7 +25699,7 @@
         <v>85900</v>
       </c>
       <c r="K499" t="n">
-        <v>17.24137931034483</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L499" t="n">
         <v>111150</v>
@@ -25728,7 +25750,7 @@
         <v>85900</v>
       </c>
       <c r="K500" t="n">
-        <v>14.28571428571428</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L500" t="n">
         <v>111100</v>
@@ -25779,7 +25801,7 @@
         <v>86000</v>
       </c>
       <c r="K501" t="n">
-        <v>10.3448275862069</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L501" t="n">
         <v>111020</v>
@@ -25830,7 +25852,7 @@
         <v>86100</v>
       </c>
       <c r="K502" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L502" t="n">
         <v>110930</v>
@@ -25881,7 +25903,7 @@
         <v>86200</v>
       </c>
       <c r="K503" t="n">
-        <v>11.11111111111111</v>
+        <v>-80</v>
       </c>
       <c r="L503" t="n">
         <v>110830</v>
@@ -25932,7 +25954,7 @@
         <v>86300</v>
       </c>
       <c r="K504" t="n">
-        <v>18.51851851851852</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L504" t="n">
         <v>110760</v>
@@ -25983,7 +26005,7 @@
         <v>86400</v>
       </c>
       <c r="K505" t="n">
-        <v>21.42857142857143</v>
+        <v>-40</v>
       </c>
       <c r="L505" t="n">
         <v>110700</v>
@@ -26034,7 +26056,7 @@
         <v>86500</v>
       </c>
       <c r="K506" t="n">
-        <v>17.24137931034483</v>
+        <v>-40</v>
       </c>
       <c r="L506" t="n">
         <v>110650</v>
@@ -26085,7 +26107,7 @@
         <v>86700</v>
       </c>
       <c r="K507" t="n">
-        <v>3.448275862068965</v>
+        <v>-50</v>
       </c>
       <c r="L507" t="n">
         <v>110590</v>
@@ -26136,7 +26158,7 @@
         <v>87100</v>
       </c>
       <c r="K508" t="n">
-        <v>15.15151515151515</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L508" t="n">
         <v>110570</v>
@@ -26187,7 +26209,7 @@
         <v>87100</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L509" t="n">
         <v>110590</v>
@@ -26238,7 +26260,7 @@
         <v>87100</v>
       </c>
       <c r="K510" t="n">
-        <v>-12</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L510" t="n">
         <v>110610</v>
@@ -26289,7 +26311,7 @@
         <v>87300</v>
       </c>
       <c r="K511" t="n">
-        <v>-12</v>
+        <v>50</v>
       </c>
       <c r="L511" t="n">
         <v>110660</v>
@@ -26340,7 +26362,7 @@
         <v>87500</v>
       </c>
       <c r="K512" t="n">
-        <v>-3.703703703703703</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L512" t="n">
         <v>110740</v>
@@ -26391,7 +26413,7 @@
         <v>87900</v>
       </c>
       <c r="K513" t="n">
-        <v>-24.13793103448276</v>
+        <v>12.5</v>
       </c>
       <c r="L513" t="n">
         <v>110770</v>
@@ -26442,7 +26464,7 @@
         <v>88000</v>
       </c>
       <c r="K514" t="n">
-        <v>-14.28571428571428</v>
+        <v>12.5</v>
       </c>
       <c r="L514" t="n">
         <v>110800</v>
@@ -26493,7 +26515,7 @@
         <v>88000</v>
       </c>
       <c r="K515" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L515" t="n">
         <v>110820</v>
@@ -26544,7 +26566,7 @@
         <v>88100</v>
       </c>
       <c r="K516" t="n">
-        <v>-11.11111111111111</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L516" t="n">
         <v>110840</v>
@@ -26595,7 +26617,7 @@
         <v>88100</v>
       </c>
       <c r="K517" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L517" t="n">
         <v>110880</v>
@@ -26646,7 +26668,7 @@
         <v>88400</v>
       </c>
       <c r="K518" t="n">
-        <v>-17.24137931034483</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L518" t="n">
         <v>110850</v>
@@ -26697,7 +26719,7 @@
         <v>88700</v>
       </c>
       <c r="K519" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L519" t="n">
         <v>110850</v>
@@ -26748,7 +26770,7 @@
         <v>89100</v>
       </c>
       <c r="K520" t="n">
-        <v>-6.25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L520" t="n">
         <v>110810</v>
@@ -26799,7 +26821,7 @@
         <v>89200</v>
       </c>
       <c r="K521" t="n">
-        <v>-6.25</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L521" t="n">
         <v>110740</v>
@@ -26850,7 +26872,7 @@
         <v>89200</v>
       </c>
       <c r="K522" t="n">
-        <v>-3.225806451612903</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L522" t="n">
         <v>110650</v>
@@ -26901,7 +26923,7 @@
         <v>89400</v>
       </c>
       <c r="K523" t="n">
-        <v>0</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L523" t="n">
         <v>110620</v>
@@ -26952,7 +26974,7 @@
         <v>89400</v>
       </c>
       <c r="K524" t="n">
-        <v>-3.225806451612903</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L524" t="n">
         <v>110580</v>
@@ -27003,7 +27025,7 @@
         <v>89400</v>
       </c>
       <c r="K525" t="n">
-        <v>-6.666666666666667</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L525" t="n">
         <v>110540</v>
@@ -27054,7 +27076,7 @@
         <v>89500</v>
       </c>
       <c r="K526" t="n">
-        <v>-6.666666666666667</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L526" t="n">
         <v>110500</v>
@@ -27105,7 +27127,7 @@
         <v>89500</v>
       </c>
       <c r="K527" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L527" t="n">
         <v>110460</v>
@@ -27156,7 +27178,7 @@
         <v>89600</v>
       </c>
       <c r="K528" t="n">
-        <v>-12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L528" t="n">
         <v>110460</v>
@@ -27207,7 +27229,7 @@
         <v>89900</v>
       </c>
       <c r="K529" t="n">
-        <v>-21.42857142857143</v>
+        <v>-25</v>
       </c>
       <c r="L529" t="n">
         <v>110400</v>
@@ -27258,7 +27280,7 @@
         <v>90100</v>
       </c>
       <c r="K530" t="n">
-        <v>-13.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L530" t="n">
         <v>110400</v>
@@ -27309,7 +27331,7 @@
         <v>90100</v>
       </c>
       <c r="K531" t="n">
-        <v>-21.42857142857143</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L531" t="n">
         <v>110410</v>
@@ -27360,7 +27382,7 @@
         <v>90100</v>
       </c>
       <c r="K532" t="n">
-        <v>-30.76923076923077</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L532" t="n">
         <v>110420</v>
@@ -27411,7 +27433,7 @@
         <v>90300</v>
       </c>
       <c r="K533" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L533" t="n">
         <v>110390</v>
@@ -27462,7 +27484,7 @@
         <v>90500</v>
       </c>
       <c r="K534" t="n">
-        <v>-36</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L534" t="n">
         <v>110340</v>
@@ -27513,7 +27535,7 @@
         <v>90700</v>
       </c>
       <c r="K535" t="n">
-        <v>-40.74074074074074</v>
+        <v>-50</v>
       </c>
       <c r="L535" t="n">
         <v>110270</v>
@@ -27564,7 +27586,7 @@
         <v>90700</v>
       </c>
       <c r="K536" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L536" t="n">
         <v>110210</v>
@@ -27615,7 +27637,7 @@
         <v>90800</v>
       </c>
       <c r="K537" t="n">
-        <v>-40.74074074074074</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L537" t="n">
         <v>110140</v>
@@ -27666,7 +27688,7 @@
         <v>90900</v>
       </c>
       <c r="K538" t="n">
-        <v>-28</v>
+        <v>-40</v>
       </c>
       <c r="L538" t="n">
         <v>110070</v>
@@ -27717,7 +27739,7 @@
         <v>91000</v>
       </c>
       <c r="K539" t="n">
-        <v>-47.82608695652174</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L539" t="n">
         <v>110020</v>
@@ -27768,7 +27790,7 @@
         <v>91200</v>
       </c>
       <c r="K540" t="n">
-        <v>-42.85714285714285</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L540" t="n">
         <v>109930</v>
@@ -27819,7 +27841,7 @@
         <v>91200</v>
       </c>
       <c r="K541" t="n">
-        <v>-40</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L541" t="n">
         <v>109840</v>
@@ -27870,7 +27892,7 @@
         <v>91200</v>
       </c>
       <c r="K542" t="n">
-        <v>-40</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L542" t="n">
         <v>109750</v>
@@ -27921,7 +27943,7 @@
         <v>91300</v>
       </c>
       <c r="K543" t="n">
-        <v>-57.89473684210527</v>
+        <v>-75</v>
       </c>
       <c r="L543" t="n">
         <v>109670</v>
@@ -27972,7 +27994,7 @@
         <v>91400</v>
       </c>
       <c r="K544" t="n">
-        <v>-50</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L544" t="n">
         <v>109620</v>
@@ -28023,7 +28045,7 @@
         <v>91400</v>
       </c>
       <c r="K545" t="n">
-        <v>-50</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L545" t="n">
         <v>109590</v>
@@ -28074,7 +28096,7 @@
         <v>91400</v>
       </c>
       <c r="K546" t="n">
-        <v>-47.36842105263158</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L546" t="n">
         <v>109560</v>
@@ -28125,7 +28147,7 @@
         <v>91400</v>
       </c>
       <c r="K547" t="n">
-        <v>-47.36842105263158</v>
+        <v>-60</v>
       </c>
       <c r="L547" t="n">
         <v>109540</v>
@@ -28176,7 +28198,7 @@
         <v>91500</v>
       </c>
       <c r="K548" t="n">
-        <v>-57.89473684210527</v>
+        <v>-60</v>
       </c>
       <c r="L548" t="n">
         <v>109500</v>
@@ -28227,7 +28249,7 @@
         <v>91700</v>
       </c>
       <c r="K549" t="n">
-        <v>-33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L549" t="n">
         <v>109490</v>
@@ -28278,7 +28300,7 @@
         <v>91900</v>
       </c>
       <c r="K550" t="n">
-        <v>-33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L550" t="n">
         <v>109520</v>
@@ -28329,7 +28351,7 @@
         <v>91900</v>
       </c>
       <c r="K551" t="n">
-        <v>-33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L551" t="n">
         <v>109550</v>
@@ -28380,7 +28402,7 @@
         <v>92300</v>
       </c>
       <c r="K552" t="n">
-        <v>-9.090909090909092</v>
+        <v>80</v>
       </c>
       <c r="L552" t="n">
         <v>109620</v>
@@ -28431,7 +28453,7 @@
         <v>92400</v>
       </c>
       <c r="K553" t="n">
-        <v>4.761904761904762</v>
+        <v>80</v>
       </c>
       <c r="L553" t="n">
         <v>109710</v>
@@ -28482,7 +28504,7 @@
         <v>92400</v>
       </c>
       <c r="K554" t="n">
-        <v>15.78947368421053</v>
+        <v>80</v>
       </c>
       <c r="L554" t="n">
         <v>109790</v>
@@ -28533,7 +28555,7 @@
         <v>92500</v>
       </c>
       <c r="K555" t="n">
-        <v>33.33333333333333</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L555" t="n">
         <v>109880</v>
@@ -28584,7 +28606,7 @@
         <v>92600</v>
       </c>
       <c r="K556" t="n">
-        <v>36.84210526315789</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L556" t="n">
         <v>109980</v>
@@ -28635,7 +28657,7 @@
         <v>92600</v>
       </c>
       <c r="K557" t="n">
-        <v>44.44444444444444</v>
+        <v>100</v>
       </c>
       <c r="L557" t="n">
         <v>110080</v>
@@ -28686,7 +28708,7 @@
         <v>92700</v>
       </c>
       <c r="K558" t="n">
-        <v>44.44444444444444</v>
+        <v>100</v>
       </c>
       <c r="L558" t="n">
         <v>110200</v>
@@ -28737,7 +28759,7 @@
         <v>92800</v>
       </c>
       <c r="K559" t="n">
-        <v>44.44444444444444</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L559" t="n">
         <v>110290</v>
@@ -28788,7 +28810,7 @@
         <v>92800</v>
       </c>
       <c r="K560" t="n">
-        <v>62.5</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L560" t="n">
         <v>110360</v>
@@ -28839,7 +28861,7 @@
         <v>92800</v>
       </c>
       <c r="K561" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="L561" t="n">
         <v>110430</v>
@@ -28890,7 +28912,7 @@
         <v>92900</v>
       </c>
       <c r="K562" t="n">
-        <v>52.94117647058824</v>
+        <v>20</v>
       </c>
       <c r="L562" t="n">
         <v>110450</v>
@@ -28941,7 +28963,7 @@
         <v>93000</v>
       </c>
       <c r="K563" t="n">
-        <v>52.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="L563" t="n">
         <v>110450</v>
@@ -28992,7 +29014,7 @@
         <v>93100</v>
       </c>
       <c r="K564" t="n">
-        <v>41.17647058823529</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L564" t="n">
         <v>110440</v>
@@ -29043,7 +29065,7 @@
         <v>93600</v>
       </c>
       <c r="K565" t="n">
-        <v>9.090909090909092</v>
+        <v>-80</v>
       </c>
       <c r="L565" t="n">
         <v>110370</v>
@@ -29094,7 +29116,7 @@
         <v>93800</v>
       </c>
       <c r="K566" t="n">
-        <v>0</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L566" t="n">
         <v>110270</v>
@@ -29145,7 +29167,7 @@
         <v>93900</v>
       </c>
       <c r="K567" t="n">
-        <v>-4</v>
+        <v>-100</v>
       </c>
       <c r="L567" t="n">
         <v>110160</v>
@@ -29196,7 +29218,7 @@
         <v>93900</v>
       </c>
       <c r="K568" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L568" t="n">
         <v>110040</v>
@@ -29247,7 +29269,7 @@
         <v>94000</v>
       </c>
       <c r="K569" t="n">
-        <v>-4.347826086956522</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L569" t="n">
         <v>109940</v>
@@ -29298,7 +29320,7 @@
         <v>94500</v>
       </c>
       <c r="K570" t="n">
-        <v>-30.76923076923077</v>
+        <v>-88.23529411764706</v>
       </c>
       <c r="L570" t="n">
         <v>109790</v>
@@ -29349,7 +29371,7 @@
         <v>94600</v>
       </c>
       <c r="K571" t="n">
-        <v>-33.33333333333333</v>
+        <v>-88.23529411764706</v>
       </c>
       <c r="L571" t="n">
         <v>109630</v>
@@ -29400,7 +29422,7 @@
         <v>94800</v>
       </c>
       <c r="K572" t="n">
-        <v>-44</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L572" t="n">
         <v>109500</v>
@@ -29451,7 +29473,7 @@
         <v>95000</v>
       </c>
       <c r="K573" t="n">
-        <v>-38.46153846153847</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L573" t="n">
         <v>109400</v>
@@ -29502,7 +29524,7 @@
         <v>95100</v>
       </c>
       <c r="K574" t="n">
-        <v>-40.74074074074074</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L574" t="n">
         <v>109300</v>
@@ -29553,7 +29575,7 @@
         <v>95700</v>
       </c>
       <c r="K575" t="n">
-        <v>-18.75</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L575" t="n">
         <v>109310</v>
@@ -29604,7 +29626,7 @@
         <v>96000</v>
       </c>
       <c r="K576" t="n">
-        <v>-29.41176470588236</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L576" t="n">
         <v>109310</v>
@@ -29655,7 +29677,7 @@
         <v>96300</v>
       </c>
       <c r="K577" t="n">
-        <v>-18.91891891891892</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L577" t="n">
         <v>109350</v>
@@ -29706,7 +29728,7 @@
         <v>96400</v>
       </c>
       <c r="K578" t="n">
-        <v>-24.32432432432433</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L578" t="n">
         <v>109380</v>
@@ -29757,7 +29779,7 @@
         <v>96500</v>
       </c>
       <c r="K579" t="n">
-        <v>-24.32432432432433</v>
+        <v>30</v>
       </c>
       <c r="L579" t="n">
         <v>109390</v>
@@ -29808,7 +29830,7 @@
         <v>96700</v>
       </c>
       <c r="K580" t="n">
-        <v>-28.2051282051282</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L580" t="n">
         <v>109430</v>
@@ -29859,7 +29881,7 @@
         <v>96700</v>
       </c>
       <c r="K581" t="n">
-        <v>-28.2051282051282</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L581" t="n">
         <v>109480</v>
@@ -29910,7 +29932,7 @@
         <v>96700</v>
       </c>
       <c r="K582" t="n">
-        <v>-26.31578947368421</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L582" t="n">
         <v>109510</v>
@@ -29961,7 +29983,7 @@
         <v>96700</v>
       </c>
       <c r="K583" t="n">
-        <v>-24.32432432432433</v>
+        <v>12.5</v>
       </c>
       <c r="L583" t="n">
         <v>109520</v>
@@ -30012,7 +30034,7 @@
         <v>96700</v>
       </c>
       <c r="K584" t="n">
-        <v>-22.22222222222222</v>
+        <v>-40</v>
       </c>
       <c r="L584" t="n">
         <v>109540</v>
@@ -30063,7 +30085,7 @@
         <v>96700</v>
       </c>
       <c r="K585" t="n">
-        <v>-9.67741935483871</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L585" t="n">
         <v>109500</v>
@@ -30114,7 +30136,7 @@
         <v>97000</v>
       </c>
       <c r="K586" t="n">
-        <v>-12.5</v>
+        <v>-100</v>
       </c>
       <c r="L586" t="n">
         <v>109460</v>
@@ -30165,7 +30187,7 @@
         <v>97300</v>
       </c>
       <c r="K587" t="n">
-        <v>-17.64705882352941</v>
+        <v>-100</v>
       </c>
       <c r="L587" t="n">
         <v>109360</v>
@@ -30216,7 +30238,7 @@
         <v>97400</v>
       </c>
       <c r="K588" t="n">
-        <v>-14.28571428571428</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L588" t="n">
         <v>109280</v>
@@ -30267,7 +30289,7 @@
         <v>97400</v>
       </c>
       <c r="K589" t="n">
-        <v>-17.64705882352941</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L589" t="n">
         <v>109210</v>
@@ -30318,7 +30340,7 @@
         <v>97700</v>
       </c>
       <c r="K590" t="n">
-        <v>6.25</v>
+        <v>-20</v>
       </c>
       <c r="L590" t="n">
         <v>109190</v>
@@ -30369,7 +30391,7 @@
         <v>98100</v>
       </c>
       <c r="K591" t="n">
-        <v>-2.857142857142857</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L591" t="n">
         <v>109130</v>
@@ -30420,7 +30442,7 @@
         <v>98100</v>
       </c>
       <c r="K592" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L592" t="n">
         <v>109070</v>
@@ -30471,7 +30493,7 @@
         <v>98200</v>
       </c>
       <c r="K593" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L593" t="n">
         <v>109020</v>
@@ -30522,7 +30544,7 @@
         <v>98300</v>
       </c>
       <c r="K594" t="n">
-        <v>-12.5</v>
+        <v>-37.5</v>
       </c>
       <c r="L594" t="n">
         <v>108960</v>
@@ -30573,7 +30595,7 @@
         <v>98300</v>
       </c>
       <c r="K595" t="n">
-        <v>-38.46153846153847</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L595" t="n">
         <v>108900</v>
@@ -30624,7 +30646,7 @@
         <v>98500</v>
       </c>
       <c r="K596" t="n">
-        <v>-20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L596" t="n">
         <v>108890</v>
@@ -30675,7 +30697,7 @@
         <v>98800</v>
       </c>
       <c r="K597" t="n">
-        <v>-44</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L597" t="n">
         <v>108880</v>
@@ -30726,7 +30748,7 @@
         <v>99200</v>
       </c>
       <c r="K598" t="n">
-        <v>-21.42857142857143</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L598" t="n">
         <v>108900</v>
@@ -30777,7 +30799,7 @@
         <v>99300</v>
       </c>
       <c r="K599" t="n">
-        <v>-21.42857142857143</v>
+        <v>-12.5</v>
       </c>
       <c r="L599" t="n">
         <v>108910</v>
@@ -30828,7 +30850,7 @@
         <v>99400</v>
       </c>
       <c r="K600" t="n">
-        <v>-18.51851851851852</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L600" t="n">
         <v>108880</v>
@@ -30879,7 +30901,7 @@
         <v>99400</v>
       </c>
       <c r="K601" t="n">
-        <v>-18.51851851851852</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L601" t="n">
         <v>108890</v>
@@ -30930,7 +30952,7 @@
         <v>99400</v>
       </c>
       <c r="K602" t="n">
-        <v>-18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L602" t="n">
         <v>108900</v>
@@ -30981,7 +31003,7 @@
         <v>99700</v>
       </c>
       <c r="K603" t="n">
-        <v>-26.66666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L603" t="n">
         <v>108870</v>
@@ -31032,7 +31054,7 @@
         <v>99800</v>
       </c>
       <c r="K604" t="n">
-        <v>-29.03225806451613</v>
+        <v>-20</v>
       </c>
       <c r="L604" t="n">
         <v>108840</v>
@@ -31083,7 +31105,7 @@
         <v>99900</v>
       </c>
       <c r="K605" t="n">
-        <v>-25</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L605" t="n">
         <v>108820</v>
@@ -31134,7 +31156,7 @@
         <v>99900</v>
       </c>
       <c r="K606" t="n">
-        <v>-17.24137931034483</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L606" t="n">
         <v>108780</v>
@@ -31185,7 +31207,7 @@
         <v>100200</v>
       </c>
       <c r="K607" t="n">
-        <v>3.448275862068965</v>
+        <v>-20</v>
       </c>
       <c r="L607" t="n">
         <v>108800</v>
@@ -31236,7 +31258,7 @@
         <v>100600</v>
       </c>
       <c r="K608" t="n">
-        <v>-12.5</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L608" t="n">
         <v>108740</v>
@@ -31287,7 +31309,7 @@
         <v>100600</v>
       </c>
       <c r="K609" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L609" t="n">
         <v>108690</v>
@@ -31338,7 +31360,7 @@
         <v>100600</v>
       </c>
       <c r="K610" t="n">
-        <v>-24.13793103448276</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L610" t="n">
         <v>108650</v>
@@ -31389,7 +31411,7 @@
         <v>100600</v>
       </c>
       <c r="K611" t="n">
-        <v>-12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L611" t="n">
         <v>108610</v>
@@ -31440,7 +31462,7 @@
         <v>100600</v>
       </c>
       <c r="K612" t="n">
-        <v>-12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L612" t="n">
         <v>108570</v>
@@ -31491,7 +31513,7 @@
         <v>100600</v>
       </c>
       <c r="K613" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L613" t="n">
         <v>108560</v>
@@ -31542,7 +31564,7 @@
         <v>100700</v>
       </c>
       <c r="K614" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L614" t="n">
         <v>108550</v>
@@ -31593,7 +31615,7 @@
         <v>100700</v>
       </c>
       <c r="K615" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L615" t="n">
         <v>108530</v>
@@ -31644,7 +31666,7 @@
         <v>101100</v>
       </c>
       <c r="K616" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L616" t="n">
         <v>108470</v>
@@ -31695,7 +31717,7 @@
         <v>101200</v>
       </c>
       <c r="K617" t="n">
-        <v>-25</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L617" t="n">
         <v>108390</v>
@@ -31746,7 +31768,7 @@
         <v>101200</v>
       </c>
       <c r="K618" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L618" t="n">
         <v>108350</v>
@@ -31797,7 +31819,7 @@
         <v>101200</v>
       </c>
       <c r="K619" t="n">
-        <v>-47.36842105263158</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L619" t="n">
         <v>108310</v>
@@ -31848,7 +31870,7 @@
         <v>101200</v>
       </c>
       <c r="K620" t="n">
-        <v>-44.44444444444444</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L620" t="n">
         <v>108270</v>
@@ -31899,7 +31921,7 @@
         <v>101400</v>
       </c>
       <c r="K621" t="n">
-        <v>-30</v>
+        <v>-25</v>
       </c>
       <c r="L621" t="n">
         <v>108250</v>
@@ -31950,7 +31972,7 @@
         <v>101500</v>
       </c>
       <c r="K622" t="n">
-        <v>-23.80952380952381</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L622" t="n">
         <v>108240</v>
@@ -32001,7 +32023,7 @@
         <v>101500</v>
       </c>
       <c r="K623" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L623" t="n">
         <v>108230</v>
@@ -32103,7 +32125,7 @@
         <v>101600</v>
       </c>
       <c r="K625" t="n">
-        <v>-17.64705882352941</v>
+        <v>60</v>
       </c>
       <c r="L625" t="n">
         <v>108210</v>
@@ -32154,7 +32176,7 @@
         <v>102100</v>
       </c>
       <c r="K626" t="n">
-        <v>-36.36363636363637</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L626" t="n">
         <v>108190</v>
@@ -32205,7 +32227,7 @@
         <v>102600</v>
       </c>
       <c r="K627" t="n">
-        <v>-25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L627" t="n">
         <v>108210</v>
@@ -32256,7 +32278,7 @@
         <v>102600</v>
       </c>
       <c r="K628" t="n">
-        <v>-10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L628" t="n">
         <v>108230</v>
@@ -32307,7 +32329,7 @@
         <v>102600</v>
       </c>
       <c r="K629" t="n">
-        <v>-10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L629" t="n">
         <v>108250</v>
@@ -32358,7 +32380,7 @@
         <v>102900</v>
       </c>
       <c r="K630" t="n">
-        <v>-21.73913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L630" t="n">
         <v>108240</v>
@@ -32409,7 +32431,7 @@
         <v>103600</v>
       </c>
       <c r="K631" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L631" t="n">
         <v>108280</v>
@@ -32460,7 +32482,7 @@
         <v>103900</v>
       </c>
       <c r="K632" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L632" t="n">
         <v>108280</v>
@@ -32511,7 +32533,7 @@
         <v>104200</v>
       </c>
       <c r="K633" t="n">
-        <v>5.555555555555555</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L633" t="n">
         <v>108310</v>
@@ -32562,7 +32584,7 @@
         <v>104400</v>
       </c>
       <c r="K634" t="n">
-        <v>2.702702702702703</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L634" t="n">
         <v>108330</v>
@@ -32613,7 +32635,7 @@
         <v>104500</v>
       </c>
       <c r="K635" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L635" t="n">
         <v>108340</v>
@@ -32664,7 +32686,7 @@
         <v>104600</v>
       </c>
       <c r="K636" t="n">
-        <v>14.28571428571428</v>
+        <v>10</v>
       </c>
       <c r="L636" t="n">
         <v>108410</v>
@@ -32715,7 +32737,7 @@
         <v>104800</v>
       </c>
       <c r="K637" t="n">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L637" t="n">
         <v>108410</v>
@@ -32766,7 +32788,7 @@
         <v>104800</v>
       </c>
       <c r="K638" t="n">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L638" t="n">
         <v>108410</v>
@@ -32817,7 +32839,7 @@
         <v>105000</v>
       </c>
       <c r="K639" t="n">
-        <v>0</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L639" t="n">
         <v>108390</v>
@@ -32868,7 +32890,7 @@
         <v>105100</v>
       </c>
       <c r="K640" t="n">
-        <v>2.564102564102564</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L640" t="n">
         <v>108410</v>
@@ -32919,7 +32941,7 @@
         <v>105400</v>
       </c>
       <c r="K641" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L641" t="n">
         <v>108330</v>
@@ -32970,7 +32992,7 @@
         <v>105500</v>
       </c>
       <c r="K642" t="n">
-        <v>-10</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L642" t="n">
         <v>108290</v>
@@ -33021,7 +33043,7 @@
         <v>105500</v>
       </c>
       <c r="K643" t="n">
-        <v>-10</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L643" t="n">
         <v>108220</v>
@@ -33072,7 +33094,7 @@
         <v>105600</v>
       </c>
       <c r="K644" t="n">
-        <v>-5</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L644" t="n">
         <v>108180</v>
@@ -33123,7 +33145,7 @@
         <v>105600</v>
       </c>
       <c r="K645" t="n">
-        <v>-5</v>
+        <v>-40</v>
       </c>
       <c r="L645" t="n">
         <v>108150</v>
@@ -33174,7 +33196,7 @@
         <v>105800</v>
       </c>
       <c r="K646" t="n">
-        <v>2.702702702702703</v>
+        <v>-40</v>
       </c>
       <c r="L646" t="n">
         <v>108090</v>
@@ -33225,7 +33247,7 @@
         <v>105900</v>
       </c>
       <c r="K647" t="n">
-        <v>-15.15151515151515</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L647" t="n">
         <v>108040</v>
@@ -33276,7 +33298,7 @@
         <v>105900</v>
       </c>
       <c r="K648" t="n">
-        <v>-15.15151515151515</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L648" t="n">
         <v>107990</v>
@@ -33327,7 +33349,7 @@
         <v>106000</v>
       </c>
       <c r="K649" t="n">
-        <v>-11.76470588235294</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L649" t="n">
         <v>107970</v>
@@ -33378,7 +33400,7 @@
         <v>106000</v>
       </c>
       <c r="K650" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L650" t="n">
         <v>107940</v>
@@ -33429,7 +33451,7 @@
         <v>106200</v>
       </c>
       <c r="K651" t="n">
-        <v>-38.46153846153847</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L651" t="n">
         <v>107920</v>
@@ -33480,7 +33502,7 @@
         <v>106600</v>
       </c>
       <c r="K652" t="n">
-        <v>-40.74074074074074</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L652" t="n">
         <v>107850</v>
@@ -33531,7 +33553,7 @@
         <v>106700</v>
       </c>
       <c r="K653" t="n">
-        <v>-52</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L653" t="n">
         <v>107790</v>
@@ -33582,7 +33604,7 @@
         <v>106800</v>
       </c>
       <c r="K654" t="n">
-        <v>-41.66666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L654" t="n">
         <v>107730</v>
@@ -33633,7 +33655,7 @@
         <v>107000</v>
       </c>
       <c r="K655" t="n">
-        <v>-44</v>
+        <v>-50</v>
       </c>
       <c r="L655" t="n">
         <v>107650</v>
@@ -33684,7 +33706,7 @@
         <v>107000</v>
       </c>
       <c r="K656" t="n">
-        <v>-50</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L656" t="n">
         <v>107590</v>
@@ -33837,7 +33859,7 @@
         <v>107200</v>
       </c>
       <c r="K659" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L659" t="n">
         <v>107470</v>
@@ -33888,7 +33910,7 @@
         <v>107200</v>
       </c>
       <c r="K660" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L660" t="n">
         <v>107430</v>
@@ -33939,7 +33961,7 @@
         <v>107600</v>
       </c>
       <c r="K661" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L661" t="n">
         <v>107450</v>
@@ -33990,7 +34012,7 @@
         <v>107700</v>
       </c>
       <c r="K662" t="n">
-        <v>-9.090909090909092</v>
+        <v>40</v>
       </c>
       <c r="L662" t="n">
         <v>107500</v>
@@ -34041,7 +34063,7 @@
         <v>108100</v>
       </c>
       <c r="K663" t="n">
-        <v>7.692307692307693</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L663" t="n">
         <v>107580</v>
@@ -34092,7 +34114,7 @@
         <v>108600</v>
       </c>
       <c r="K664" t="n">
-        <v>-13.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L664" t="n">
         <v>107600</v>
@@ -34143,7 +34165,7 @@
         <v>108700</v>
       </c>
       <c r="K665" t="n">
-        <v>-9.67741935483871</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L665" t="n">
         <v>107650</v>
@@ -34194,7 +34216,7 @@
         <v>108800</v>
       </c>
       <c r="K666" t="n">
-        <v>-6.666666666666667</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L666" t="n">
         <v>107690</v>
@@ -34245,7 +34267,7 @@
         <v>108900</v>
       </c>
       <c r="K667" t="n">
-        <v>-6.666666666666667</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L667" t="n">
         <v>107720</v>
@@ -34296,7 +34318,7 @@
         <v>109000</v>
       </c>
       <c r="K668" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L668" t="n">
         <v>107720</v>
@@ -34347,7 +34369,7 @@
         <v>109000</v>
       </c>
       <c r="K669" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L669" t="n">
         <v>107720</v>
@@ -34398,7 +34420,7 @@
         <v>109000</v>
       </c>
       <c r="K670" t="n">
-        <v>-13.33333333333333</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L670" t="n">
         <v>107720</v>
@@ -34449,7 +34471,7 @@
         <v>109000</v>
       </c>
       <c r="K671" t="n">
-        <v>-7.142857142857142</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L671" t="n">
         <v>107680</v>
@@ -34500,7 +34522,7 @@
         <v>109300</v>
       </c>
       <c r="K672" t="n">
-        <v>18.51851851851852</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L672" t="n">
         <v>107680</v>
@@ -34551,7 +34573,7 @@
         <v>109400</v>
       </c>
       <c r="K673" t="n">
-        <v>18.51851851851852</v>
+        <v>25</v>
       </c>
       <c r="L673" t="n">
         <v>107650</v>
@@ -34602,7 +34624,7 @@
         <v>109600</v>
       </c>
       <c r="K674" t="n">
-        <v>7.142857142857142</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L674" t="n">
         <v>107650</v>
@@ -34653,7 +34675,7 @@
         <v>109800</v>
       </c>
       <c r="K675" t="n">
-        <v>21.42857142857143</v>
+        <v>20</v>
       </c>
       <c r="L675" t="n">
         <v>107660</v>
@@ -34704,7 +34726,7 @@
         <v>110000</v>
       </c>
       <c r="K676" t="n">
-        <v>13.33333333333333</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L676" t="n">
         <v>107660</v>
@@ -34755,7 +34777,7 @@
         <v>110000</v>
       </c>
       <c r="K677" t="n">
-        <v>13.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L677" t="n">
         <v>107670</v>
@@ -34806,7 +34828,7 @@
         <v>110500</v>
       </c>
       <c r="K678" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L678" t="n">
         <v>107640</v>
@@ -34857,7 +34879,7 @@
         <v>110900</v>
       </c>
       <c r="K679" t="n">
-        <v>2.702702702702703</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L679" t="n">
         <v>107650</v>
@@ -34908,7 +34930,7 @@
         <v>111000</v>
       </c>
       <c r="K680" t="n">
-        <v>5.263157894736842</v>
+        <v>10</v>
       </c>
       <c r="L680" t="n">
         <v>107670</v>
@@ -35010,7 +35032,7 @@
         <v>111200</v>
       </c>
       <c r="K682" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L682" t="n">
         <v>107700</v>
@@ -35061,7 +35083,7 @@
         <v>111300</v>
       </c>
       <c r="K683" t="n">
-        <v>-12.5</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L683" t="n">
         <v>107690</v>
@@ -35112,7 +35134,7 @@
         <v>111600</v>
       </c>
       <c r="K684" t="n">
-        <v>13.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L684" t="n">
         <v>107730</v>
@@ -35163,7 +35185,7 @@
         <v>111700</v>
       </c>
       <c r="K685" t="n">
-        <v>6.666666666666667</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L685" t="n">
         <v>107740</v>
@@ -35214,7 +35236,7 @@
         <v>111700</v>
       </c>
       <c r="K686" t="n">
-        <v>10.3448275862069</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L686" t="n">
         <v>107770</v>
@@ -35265,7 +35287,7 @@
         <v>111700</v>
       </c>
       <c r="K687" t="n">
-        <v>14.28571428571428</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L687" t="n">
         <v>107800</v>
@@ -35316,7 +35338,7 @@
         <v>111700</v>
       </c>
       <c r="K688" t="n">
-        <v>18.51851851851852</v>
+        <v>50</v>
       </c>
       <c r="L688" t="n">
         <v>107880</v>
@@ -35367,7 +35389,7 @@
         <v>111700</v>
       </c>
       <c r="K689" t="n">
-        <v>18.51851851851852</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L689" t="n">
         <v>107920</v>
@@ -35418,7 +35440,7 @@
         <v>111900</v>
       </c>
       <c r="K690" t="n">
-        <v>24.13793103448276</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L690" t="n">
         <v>107970</v>
@@ -35469,7 +35491,7 @@
         <v>112100</v>
       </c>
       <c r="K691" t="n">
-        <v>29.03225806451613</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L691" t="n">
         <v>108040</v>
@@ -35520,7 +35542,7 @@
         <v>112300</v>
       </c>
       <c r="K692" t="n">
-        <v>13.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="L692" t="n">
         <v>108070</v>
@@ -35571,7 +35593,7 @@
         <v>112600</v>
       </c>
       <c r="K693" t="n">
-        <v>18.75</v>
+        <v>40</v>
       </c>
       <c r="L693" t="n">
         <v>108140</v>
@@ -35622,7 +35644,7 @@
         <v>112700</v>
       </c>
       <c r="K694" t="n">
-        <v>29.03225806451613</v>
+        <v>60</v>
       </c>
       <c r="L694" t="n">
         <v>108190</v>
@@ -35673,7 +35695,7 @@
         <v>112700</v>
       </c>
       <c r="K695" t="n">
-        <v>24.13793103448276</v>
+        <v>60</v>
       </c>
       <c r="L695" t="n">
         <v>108250</v>
@@ -35724,7 +35746,7 @@
         <v>112800</v>
       </c>
       <c r="K696" t="n">
-        <v>35.71428571428572</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L696" t="n">
         <v>108320</v>
@@ -35775,7 +35797,7 @@
         <v>112900</v>
       </c>
       <c r="K697" t="n">
-        <v>31.03448275862069</v>
+        <v>50</v>
       </c>
       <c r="L697" t="n">
         <v>108380</v>
@@ -35826,7 +35848,7 @@
         <v>112900</v>
       </c>
       <c r="K698" t="n">
-        <v>58.33333333333334</v>
+        <v>50</v>
       </c>
       <c r="L698" t="n">
         <v>108440</v>
@@ -35877,7 +35899,7 @@
         <v>112900</v>
       </c>
       <c r="K699" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L699" t="n">
         <v>108500</v>
@@ -35928,7 +35950,7 @@
         <v>113000</v>
       </c>
       <c r="K700" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L700" t="n">
         <v>108550</v>
@@ -35979,7 +36001,7 @@
         <v>113200</v>
       </c>
       <c r="K701" t="n">
-        <v>54.54545454545454</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L701" t="n">
         <v>108600</v>
@@ -36030,7 +36052,7 @@
         <v>113200</v>
       </c>
       <c r="K702" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L702" t="n">
         <v>108670</v>
@@ -36081,7 +36103,7 @@
         <v>113400</v>
       </c>
       <c r="K703" t="n">
-        <v>61.90476190476191</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L703" t="n">
         <v>108730</v>
@@ -36132,7 +36154,7 @@
         <v>113800</v>
       </c>
       <c r="K704" t="n">
-        <v>63.63636363636363</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L704" t="n">
         <v>108820</v>
@@ -36183,7 +36205,7 @@
         <v>113800</v>
       </c>
       <c r="K705" t="n">
-        <v>71.42857142857143</v>
+        <v>80</v>
       </c>
       <c r="L705" t="n">
         <v>108910</v>
@@ -36234,7 +36256,7 @@
         <v>113900</v>
       </c>
       <c r="K706" t="n">
-        <v>72.72727272727273</v>
+        <v>100</v>
       </c>
       <c r="L706" t="n">
         <v>109000</v>
@@ -36285,7 +36307,7 @@
         <v>114300</v>
       </c>
       <c r="K707" t="n">
-        <v>46.15384615384615</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L707" t="n">
         <v>109060</v>
@@ -36336,7 +36358,7 @@
         <v>114600</v>
       </c>
       <c r="K708" t="n">
-        <v>31.03448275862069</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L708" t="n">
         <v>109090</v>
@@ -36387,7 +36409,7 @@
         <v>114600</v>
       </c>
       <c r="K709" t="n">
-        <v>31.03448275862069</v>
+        <v>12.5</v>
       </c>
       <c r="L709" t="n">
         <v>109120</v>
@@ -36438,7 +36460,7 @@
         <v>114700</v>
       </c>
       <c r="K710" t="n">
-        <v>21.42857142857143</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L710" t="n">
         <v>109130</v>
@@ -36489,7 +36511,7 @@
         <v>115000</v>
       </c>
       <c r="K711" t="n">
-        <v>24.13793103448276</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L711" t="n">
         <v>109150</v>
@@ -36540,7 +36562,7 @@
         <v>115000</v>
       </c>
       <c r="K712" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L712" t="n">
         <v>109170</v>
@@ -36591,7 +36613,7 @@
         <v>115200</v>
       </c>
       <c r="K713" t="n">
-        <v>15.38461538461539</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L713" t="n">
         <v>109150</v>
@@ -36642,7 +36664,7 @@
         <v>115200</v>
       </c>
       <c r="K714" t="n">
-        <v>12</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L714" t="n">
         <v>109090</v>
@@ -36693,7 +36715,7 @@
         <v>115400</v>
       </c>
       <c r="K715" t="n">
-        <v>3.703703703703703</v>
+        <v>-60</v>
       </c>
       <c r="L715" t="n">
         <v>109010</v>
@@ -36744,7 +36766,7 @@
         <v>115600</v>
       </c>
       <c r="K716" t="n">
-        <v>7.142857142857142</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L716" t="n">
         <v>108940</v>
@@ -36795,7 +36817,7 @@
         <v>116000</v>
       </c>
       <c r="K717" t="n">
-        <v>22.58064516129032</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L717" t="n">
         <v>108950</v>
@@ -36846,7 +36868,7 @@
         <v>116000</v>
       </c>
       <c r="K718" t="n">
-        <v>22.58064516129032</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L718" t="n">
         <v>108990</v>
@@ -36897,7 +36919,7 @@
         <v>116000</v>
       </c>
       <c r="K719" t="n">
-        <v>22.58064516129032</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L719" t="n">
         <v>109030</v>
@@ -36999,7 +37021,7 @@
         <v>116100</v>
       </c>
       <c r="K721" t="n">
-        <v>17.24137931034483</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L721" t="n">
         <v>109110</v>
@@ -37050,7 +37072,7 @@
         <v>116300</v>
       </c>
       <c r="K722" t="n">
-        <v>22.58064516129032</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L722" t="n">
         <v>109160</v>
@@ -37101,7 +37123,7 @@
         <v>116400</v>
       </c>
       <c r="K723" t="n">
-        <v>13.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L723" t="n">
         <v>109220</v>
@@ -37152,7 +37174,7 @@
         <v>116800</v>
       </c>
       <c r="K724" t="n">
-        <v>-13.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L724" t="n">
         <v>109240</v>
@@ -37203,7 +37225,7 @@
         <v>116800</v>
       </c>
       <c r="K725" t="n">
-        <v>-13.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L725" t="n">
         <v>109280</v>
@@ -37254,7 +37276,7 @@
         <v>116800</v>
       </c>
       <c r="K726" t="n">
-        <v>-17.24137931034483</v>
+        <v>-25</v>
       </c>
       <c r="L726" t="n">
         <v>109300</v>
@@ -37305,7 +37327,7 @@
         <v>116800</v>
       </c>
       <c r="K727" t="n">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="L727" t="n">
         <v>109280</v>
@@ -37356,7 +37378,7 @@
         <v>116900</v>
       </c>
       <c r="K728" t="n">
-        <v>13.04347826086956</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L728" t="n">
         <v>109270</v>
@@ -37407,7 +37429,7 @@
         <v>117300</v>
       </c>
       <c r="K729" t="n">
-        <v>-3.703703703703703</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L729" t="n">
         <v>109220</v>
@@ -37458,7 +37480,7 @@
         <v>117300</v>
       </c>
       <c r="K730" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L730" t="n">
         <v>109170</v>
@@ -37509,7 +37531,7 @@
         <v>117900</v>
       </c>
       <c r="K731" t="n">
-        <v>-31.03448275862069</v>
+        <v>-87.5</v>
       </c>
       <c r="L731" t="n">
         <v>109050</v>
@@ -37560,7 +37582,7 @@
         <v>118100</v>
       </c>
       <c r="K732" t="n">
-        <v>-35.48387096774194</v>
+        <v>-88.23529411764706</v>
       </c>
       <c r="L732" t="n">
         <v>108890</v>
@@ -37611,7 +37633,7 @@
         <v>118400</v>
       </c>
       <c r="K733" t="n">
-        <v>-18.75</v>
+        <v>-50</v>
       </c>
       <c r="L733" t="n">
         <v>108770</v>
@@ -37662,7 +37684,7 @@
         <v>118700</v>
       </c>
       <c r="K734" t="n">
-        <v>-25.71428571428571</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L734" t="n">
         <v>108660</v>
@@ -37713,7 +37735,7 @@
         <v>118700</v>
       </c>
       <c r="K735" t="n">
-        <v>-21.21212121212121</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L735" t="n">
         <v>108550</v>
@@ -37764,7 +37786,7 @@
         <v>118900</v>
       </c>
       <c r="K736" t="n">
-        <v>-21.21212121212121</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L736" t="n">
         <v>108460</v>
@@ -37815,7 +37837,7 @@
         <v>119000</v>
       </c>
       <c r="K737" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L737" t="n">
         <v>108380</v>
@@ -37866,7 +37888,7 @@
         <v>119500</v>
       </c>
       <c r="K738" t="n">
-        <v>-42.85714285714285</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L738" t="n">
         <v>108240</v>
@@ -37917,7 +37939,7 @@
         <v>119600</v>
       </c>
       <c r="K739" t="n">
-        <v>-38.88888888888889</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L739" t="n">
         <v>108150</v>
@@ -37968,7 +37990,7 @@
         <v>119900</v>
       </c>
       <c r="K740" t="n">
-        <v>-28.2051282051282</v>
+        <v>0</v>
       </c>
       <c r="L740" t="n">
         <v>108090</v>
@@ -38019,7 +38041,7 @@
         <v>120200</v>
       </c>
       <c r="K741" t="n">
-        <v>-36.58536585365854</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L741" t="n">
         <v>108060</v>
@@ -38070,7 +38092,7 @@
         <v>120400</v>
       </c>
       <c r="K742" t="n">
-        <v>-46.34146341463415</v>
+        <v>-30</v>
       </c>
       <c r="L742" t="n">
         <v>108030</v>
@@ -38121,7 +38143,7 @@
         <v>120600</v>
       </c>
       <c r="K743" t="n">
-        <v>-47.61904761904761</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L743" t="n">
         <v>107950</v>
@@ -38172,7 +38194,7 @@
         <v>120600</v>
       </c>
       <c r="K744" t="n">
-        <v>-42.10526315789473</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L744" t="n">
         <v>107900</v>
@@ -38223,7 +38245,7 @@
         <v>121000</v>
       </c>
       <c r="K745" t="n">
-        <v>-28.57142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L745" t="n">
         <v>107890</v>
@@ -38274,7 +38296,7 @@
         <v>121200</v>
       </c>
       <c r="K746" t="n">
-        <v>-31.81818181818182</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L746" t="n">
         <v>107840</v>
@@ -38325,7 +38347,7 @@
         <v>121300</v>
       </c>
       <c r="K747" t="n">
-        <v>-28.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="L747" t="n">
         <v>107790</v>
@@ -38376,7 +38398,7 @@
         <v>121600</v>
       </c>
       <c r="K748" t="n">
-        <v>-23.40425531914894</v>
+        <v>10</v>
       </c>
       <c r="L748" t="n">
         <v>107820</v>
@@ -38427,7 +38449,7 @@
         <v>121700</v>
       </c>
       <c r="K749" t="n">
-        <v>-13.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="L749" t="n">
         <v>107850</v>
@@ -38478,7 +38500,7 @@
         <v>121800</v>
       </c>
       <c r="K750" t="n">
-        <v>-15.55555555555556</v>
+        <v>12.5</v>
       </c>
       <c r="L750" t="n">
         <v>107840</v>
@@ -38529,7 +38551,7 @@
         <v>122100</v>
       </c>
       <c r="K751" t="n">
-        <v>-9.523809523809524</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L751" t="n">
         <v>107830</v>
@@ -38580,7 +38602,7 @@
         <v>122600</v>
       </c>
       <c r="K752" t="n">
-        <v>6.666666666666667</v>
+        <v>40</v>
       </c>
       <c r="L752" t="n">
         <v>107890</v>

--- a/BackTest/2019-10-16 BackTest BSV.xlsx
+++ b/BackTest/2019-10-16 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4.209500000000007</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4.209500000000007</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>104000</v>
@@ -521,7 +521,7 @@
         <v>4.209500000000007</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>104000</v>
@@ -562,7 +562,7 @@
         <v>4.209500000000007</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>104000</v>
@@ -603,7 +603,7 @@
         <v>3.730100000000007</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>104000</v>
@@ -644,7 +644,7 @@
         <v>65.83010000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>103800</v>
@@ -685,7 +685,7 @@
         <v>65.83010000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>104000</v>
@@ -726,7 +726,7 @@
         <v>65.83010000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>104000</v>
@@ -767,7 +767,7 @@
         <v>65.83010000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>104000</v>
@@ -808,7 +808,7 @@
         <v>296.9298</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>104000</v>
@@ -849,7 +849,7 @@
         <v>415.9268</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>104300</v>
@@ -890,7 +890,7 @@
         <v>707.434</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>104400</v>
@@ -931,7 +931,7 @@
         <v>685.5553</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>104600</v>
@@ -972,11 +972,9 @@
         <v>739.8253</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>104300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>104000</v>
       </c>
@@ -1013,11 +1011,9 @@
         <v>739.8253</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>104500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>104000</v>
       </c>
@@ -1054,11 +1050,9 @@
         <v>739.8253</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>104500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>104000</v>
       </c>
@@ -1095,11 +1089,9 @@
         <v>753.8973</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>104500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>104000</v>
       </c>
@@ -1136,11 +1128,9 @@
         <v>753.8973</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>104600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>104000</v>
       </c>
@@ -1177,11 +1167,9 @@
         <v>776.9433</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>104600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>104000</v>
       </c>
@@ -1218,11 +1206,9 @@
         <v>820.2574000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>104700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>104000</v>
       </c>
@@ -1259,11 +1245,9 @@
         <v>820.2574000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>104800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>104000</v>
       </c>
@@ -1300,11 +1284,9 @@
         <v>820.2574000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>104800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>104000</v>
       </c>
@@ -1341,7 +1323,7 @@
         <v>819.8522</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>104800</v>
@@ -1382,9 +1364,11 @@
         <v>1288.4333</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>104700</v>
+      </c>
       <c r="J25" t="n">
         <v>104000</v>
       </c>
@@ -5945,9 +5929,11 @@
         <v>922.2679668000006</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>103900</v>
+      </c>
       <c r="J142" t="n">
         <v>104000</v>
       </c>
@@ -6023,9 +6009,11 @@
         <v>905.6491668000007</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>103700</v>
+      </c>
       <c r="J144" t="n">
         <v>104000</v>
       </c>
@@ -6062,9 +6050,11 @@
         <v>891.8850668000007</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>103700</v>
+      </c>
       <c r="J145" t="n">
         <v>104000</v>
       </c>
@@ -6101,9 +6091,11 @@
         <v>935.5800668000007</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>103200</v>
+      </c>
       <c r="J146" t="n">
         <v>104000</v>
       </c>
@@ -6140,9 +6132,11 @@
         <v>1015.023066800001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>103600</v>
+      </c>
       <c r="J147" t="n">
         <v>104000</v>
       </c>
@@ -6179,9 +6173,11 @@
         <v>1007.142366800001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>103900</v>
+      </c>
       <c r="J148" t="n">
         <v>104000</v>
       </c>
@@ -6218,9 +6214,11 @@
         <v>1006.744566800001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>103500</v>
+      </c>
       <c r="J149" t="n">
         <v>104000</v>
       </c>
@@ -6257,9 +6255,11 @@
         <v>1006.896770070001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>103300</v>
+      </c>
       <c r="J150" t="n">
         <v>104000</v>
       </c>
@@ -6296,9 +6296,11 @@
         <v>1005.991070070001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>103800</v>
+      </c>
       <c r="J151" t="n">
         <v>104000</v>
       </c>
@@ -6335,9 +6337,11 @@
         <v>1020.728166800001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>103700</v>
+      </c>
       <c r="J152" t="n">
         <v>104000</v>
       </c>
@@ -6491,9 +6495,11 @@
         <v>997.5591668000006</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>103600</v>
+      </c>
       <c r="J156" t="n">
         <v>104000</v>
       </c>
@@ -6530,9 +6536,11 @@
         <v>1008.559166800001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>103600</v>
+      </c>
       <c r="J157" t="n">
         <v>104000</v>
       </c>
@@ -6569,9 +6577,11 @@
         <v>1036.863566800001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>103800</v>
+      </c>
       <c r="J158" t="n">
         <v>104000</v>
       </c>
@@ -6647,9 +6657,11 @@
         <v>1046.883566800001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>104100</v>
+      </c>
       <c r="J160" t="n">
         <v>104000</v>
       </c>
@@ -6725,9 +6737,11 @@
         <v>1037.426566800001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>103900</v>
+      </c>
       <c r="J162" t="n">
         <v>104000</v>
       </c>
@@ -11171,7 +11185,7 @@
         <v>1424.820672750001</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
@@ -11179,11 +11193,11 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1.018076923076923</v>
+        <v>1</v>
       </c>
       <c r="M276" t="inlineStr"/>
     </row>
@@ -11210,11 +11224,17 @@
         <v>1423.025672750001</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11246,8 +11266,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11279,8 +11305,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11312,8 +11344,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11345,8 +11383,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11378,8 +11422,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11411,8 +11461,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11444,8 +11500,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11477,8 +11539,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11510,8 +11578,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11543,8 +11617,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11576,8 +11656,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11609,8 +11695,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11642,8 +11734,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11675,8 +11773,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11708,8 +11812,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11741,8 +11851,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11774,8 +11890,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11807,8 +11929,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11840,8 +11968,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11873,8 +12007,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11906,8 +12046,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11939,8 +12085,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11972,8 +12124,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12005,8 +12163,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12038,8 +12202,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12071,8 +12241,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12104,8 +12280,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12137,8 +12319,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12170,8 +12358,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12203,8 +12397,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12236,8 +12436,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12269,8 +12475,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12302,8 +12514,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12335,8 +12553,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12368,8 +12592,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12401,8 +12631,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12434,8 +12670,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12467,8 +12709,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12500,8 +12748,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12533,8 +12787,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12566,8 +12826,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12599,8 +12865,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12632,8 +12904,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12665,8 +12943,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12698,8 +12982,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12731,8 +13021,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12764,8 +13060,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12797,8 +13099,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12830,8 +13138,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12863,8 +13177,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12896,8 +13216,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12929,8 +13255,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12962,8 +13294,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12995,8 +13333,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13028,8 +13372,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13061,8 +13411,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13094,8 +13450,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13127,8 +13489,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13160,8 +13528,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13193,8 +13567,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13226,8 +13606,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13259,8 +13645,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13292,8 +13684,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13325,8 +13723,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13358,8 +13762,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13391,8 +13801,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13424,8 +13840,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13457,8 +13879,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13490,8 +13918,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13523,8 +13957,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13556,8 +13996,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13589,8 +14035,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13622,8 +14074,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13655,8 +14113,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13688,8 +14152,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13721,8 +14191,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13754,8 +14230,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13787,8 +14269,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13820,8 +14308,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13853,8 +14347,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13886,8 +14386,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13919,8 +14425,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13952,8 +14464,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13985,8 +14503,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14018,8 +14542,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14051,8 +14581,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14084,8 +14620,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14117,8 +14659,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14150,8 +14698,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14183,8 +14737,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14216,8 +14776,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14249,8 +14815,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14282,8 +14854,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14315,8 +14893,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14348,8 +14932,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14381,8 +14971,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14414,8 +15010,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14447,8 +15049,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14480,8 +15088,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14513,8 +15127,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14546,8 +15166,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14579,8 +15205,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14612,8 +15244,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14645,8 +15283,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14678,8 +15322,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14711,8 +15361,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14744,8 +15400,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14777,8 +15439,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14810,8 +15478,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14843,8 +15517,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14876,8 +15556,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14909,8 +15595,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14942,8 +15634,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14975,8 +15673,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15008,8 +15712,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15038,11 +15748,17 @@
         <v>1684.630772750001</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15071,11 +15787,17 @@
         <v>1692.990272750001</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15104,11 +15826,17 @@
         <v>1938.759528710001</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15137,11 +15865,17 @@
         <v>1743.660928710001</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15170,11 +15904,17 @@
         <v>1801.363633030001</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15203,11 +15943,17 @@
         <v>1755.035437350002</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15236,11 +15982,17 @@
         <v>1776.508337350002</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15269,11 +16021,17 @@
         <v>1898.631833510002</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15302,11 +16060,17 @@
         <v>1898.631833510002</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15335,11 +16099,17 @@
         <v>1654.441298030002</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15368,11 +16138,17 @@
         <v>1503.078598030002</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15401,11 +16177,17 @@
         <v>1652.995698030002</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15434,11 +16216,17 @@
         <v>1720.656798030002</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15467,11 +16255,17 @@
         <v>2675.778302940002</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15500,11 +16294,17 @@
         <v>2721.777674800001</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15533,11 +16333,17 @@
         <v>2549.486074800001</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15566,11 +16372,17 @@
         <v>2146.487374800001</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15599,11 +16411,17 @@
         <v>1980.994474800001</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15632,11 +16450,17 @@
         <v>2112.480974800002</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15665,11 +16489,17 @@
         <v>1970.705777700002</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15698,11 +16528,17 @@
         <v>1920.549977700002</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15734,8 +16570,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15767,8 +16609,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15797,11 +16645,17 @@
         <v>2062.657177700002</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15833,8 +16687,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15866,8 +16726,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15899,8 +16765,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15929,11 +16801,17 @@
         <v>1996.294977700002</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15965,8 +16843,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15995,11 +16879,17 @@
         <v>1778.583777700002</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16031,8 +16921,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16061,11 +16957,17 @@
         <v>1819.223277700002</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16097,8 +16999,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16130,8 +17038,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16163,8 +17077,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16193,11 +17113,17 @@
         <v>1828.023777700002</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16229,8 +17155,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16262,8 +17194,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16295,8 +17233,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16328,8 +17272,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16361,8 +17311,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16394,8 +17350,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16427,8 +17389,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16460,8 +17428,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16493,8 +17467,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16526,8 +17506,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16559,8 +17545,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16592,8 +17584,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16625,8 +17623,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16658,8 +17662,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16691,8 +17701,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16724,8 +17740,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16757,8 +17779,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16790,8 +17818,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16823,8 +17857,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16856,8 +17896,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16886,15 +17932,23 @@
         <v>1944.654117190002</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
+        <v>1.052692307692308</v>
+      </c>
+      <c r="M449" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -16919,7 +17973,7 @@
         <v>1944.654117190002</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16952,7 +18006,7 @@
         <v>1944.654117190002</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16985,7 +18039,7 @@
         <v>1935.420817190002</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17018,7 +18072,7 @@
         <v>1950.264617190002</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17051,7 +18105,7 @@
         <v>1952.456930870002</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17084,7 +18138,7 @@
         <v>1952.456930870002</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17117,7 +18171,7 @@
         <v>1946.614130870002</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17150,7 +18204,7 @@
         <v>1945.654230870002</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17183,7 +18237,7 @@
         <v>1945.673287130002</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17249,7 +18303,7 @@
         <v>1882.579747500002</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17282,7 +18336,7 @@
         <v>1882.579747500002</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17315,7 +18369,7 @@
         <v>1882.090147500002</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17348,7 +18402,7 @@
         <v>1882.090147500002</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17381,7 +18435,7 @@
         <v>1832.394547500002</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17414,7 +18468,7 @@
         <v>1832.394547500002</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17447,7 +18501,7 @@
         <v>1832.394547500002</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17480,7 +18534,7 @@
         <v>1774.861647500002</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17513,7 +18567,7 @@
         <v>1769.945247500002</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17546,7 +18600,7 @@
         <v>1722.003147500002</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17612,7 +18666,7 @@
         <v>1726.651647500002</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17711,7 +18765,7 @@
         <v>1521.788347500002</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17744,7 +18798,7 @@
         <v>1521.788347500002</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17777,7 +18831,7 @@
         <v>1536.414247500002</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17810,7 +18864,7 @@
         <v>1543.864447500002</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17876,7 +18930,7 @@
         <v>1185.495547500002</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17909,7 +18963,7 @@
         <v>1196.823247500002</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17942,7 +18996,7 @@
         <v>1236.976347500002</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17975,7 +19029,7 @@
         <v>1362.602647500002</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18008,7 +19062,7 @@
         <v>1362.602647500002</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18041,7 +19095,7 @@
         <v>1447.156547500002</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18074,7 +19128,7 @@
         <v>1524.943947500002</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18107,7 +19161,7 @@
         <v>1524.943947500002</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -20219,7 +21273,7 @@
         <v>2774.460401750001</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20252,7 +21306,7 @@
         <v>2774.460401750001</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20285,7 +21339,7 @@
         <v>2852.239601120001</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20318,7 +21372,7 @@
         <v>2788.099901120001</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20351,7 +21405,7 @@
         <v>2788.099901120001</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20384,7 +21438,7 @@
         <v>2645.488201120001</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20417,7 +21471,7 @@
         <v>2473.552401120001</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20450,7 +21504,7 @@
         <v>2473.552401120001</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20483,7 +21537,7 @@
         <v>2428.188901120001</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20516,7 +21570,7 @@
         <v>2428.188901120001</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20549,7 +21603,7 @@
         <v>2365.028901120001</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20582,7 +21636,7 @@
         <v>2279.750101120001</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20615,7 +21669,7 @@
         <v>2294.160601120001</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20648,7 +21702,7 @@
         <v>2321.715901120001</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20681,7 +21735,7 @@
         <v>2350.999201120001</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20714,7 +21768,7 @@
         <v>2312.567001120001</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20747,7 +21801,7 @@
         <v>2269.444101120001</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20780,7 +21834,7 @@
         <v>2308.518701120001</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20879,7 +21933,7 @@
         <v>2328.198501120001</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20912,7 +21966,7 @@
         <v>2339.209201120001</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20945,7 +21999,7 @@
         <v>2317.36850112</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20978,7 +22032,7 @@
         <v>2342.64560112</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21011,7 +22065,7 @@
         <v>2342.64560112</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21044,7 +22098,7 @@
         <v>2337.36160112</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21077,7 +22131,7 @@
         <v>2337.36160112</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21110,7 +22164,7 @@
         <v>2242.60000112</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21143,7 +22197,7 @@
         <v>2244.70100112</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21176,7 +22230,7 @@
         <v>2231.926801120001</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21209,7 +22263,7 @@
         <v>2181.341701120001</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21242,7 +22296,7 @@
         <v>2181.341701120001</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21539,7 +22593,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21572,7 +22626,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21605,7 +22659,7 @@
         <v>1952.402501120001</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21638,7 +22692,7 @@
         <v>1880.845301120001</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21671,7 +22725,7 @@
         <v>1617.562301120001</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21704,7 +22758,7 @@
         <v>1617.562301120001</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21737,7 +22791,7 @@
         <v>1341.410601120001</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21770,7 +22824,7 @@
         <v>1364.053501120001</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21803,7 +22857,7 @@
         <v>1357.535401120001</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21836,7 +22890,7 @@
         <v>1342.073801120001</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21869,7 +22923,7 @@
         <v>1342.073801120001</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21902,7 +22956,7 @@
         <v>1342.073801120001</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21935,7 +22989,7 @@
         <v>1294.998401120001</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21968,7 +23022,7 @@
         <v>1305.749601120001</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22001,7 +23055,7 @@
         <v>1305.749601120001</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22034,7 +23088,7 @@
         <v>1305.749601120001</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22067,7 +23121,7 @@
         <v>1305.749601120001</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22100,7 +23154,7 @@
         <v>1300.900001120001</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22133,7 +23187,7 @@
         <v>1311.447801120001</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22166,7 +23220,7 @@
         <v>1325.258201120001</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22199,7 +23253,7 @@
         <v>1325.258201120001</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22232,7 +23286,7 @@
         <v>1340.473501120001</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22265,7 +23319,7 @@
         <v>1384.323401120001</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22298,7 +23352,7 @@
         <v>1384.323401120001</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22331,7 +23385,7 @@
         <v>1399.585901120001</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22364,7 +23418,7 @@
         <v>1418.113401120001</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22397,7 +23451,7 @@
         <v>1418.113401120001</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22430,7 +23484,7 @@
         <v>1419.232501120001</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22463,7 +23517,7 @@
         <v>1414.267601120001</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22496,7 +23550,7 @@
         <v>1414.267601120001</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22529,7 +23583,7 @@
         <v>1414.267601120001</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22562,7 +23616,7 @@
         <v>1410.041701120001</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22595,7 +23649,7 @@
         <v>1409.975201120001</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22628,7 +23682,7 @@
         <v>1409.955201120001</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22661,7 +23715,7 @@
         <v>1408.666301120001</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22694,7 +23748,7 @@
         <v>1403.096201120001</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -27314,7 +28368,7 @@
         <v>1195.55732056</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27347,7 +28401,7 @@
         <v>1193.26973998</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27380,7 +28434,7 @@
         <v>1183.00293998</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27413,7 +28467,7 @@
         <v>1183.00293998</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27446,7 +28500,7 @@
         <v>1170.12313998</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27479,7 +28533,7 @@
         <v>1199.48653998</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28480,6 +29534,6 @@
       <c r="M800" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest BSV.xlsx
+++ b/BackTest/2019-10-16 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -931,11 +931,9 @@
         <v>685.5553</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>104600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>104000</v>
       </c>
@@ -1323,11 +1321,9 @@
         <v>819.8522</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>104800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>104000</v>
       </c>
@@ -1364,11 +1360,9 @@
         <v>1288.4333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>104700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>104000</v>
       </c>
@@ -2848,7 +2842,7 @@
         <v>2009.0545668</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
@@ -2856,11 +2850,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>1.015192307692308</v>
       </c>
       <c r="M63" t="inlineStr"/>
     </row>
@@ -2890,14 +2884,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2929,14 +2917,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2968,14 +2950,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3007,14 +2983,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3046,14 +3016,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3085,14 +3049,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3124,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3163,14 +3115,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3202,14 +3148,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3241,14 +3181,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3280,14 +3214,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3319,14 +3247,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3358,14 +3280,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3397,14 +3313,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3436,14 +3346,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3475,14 +3379,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3514,14 +3412,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3553,14 +3445,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3592,14 +3478,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3631,14 +3511,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3670,14 +3544,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3709,14 +3577,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3748,14 +3610,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3787,14 +3643,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3826,14 +3676,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3865,14 +3709,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3904,14 +3742,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3943,14 +3775,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3982,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +3841,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4060,14 +3874,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4099,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4138,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4177,14 +3973,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4216,14 +4006,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4255,14 +4039,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4294,14 +4072,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4333,14 +4105,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4372,14 +4138,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4411,14 +4171,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4450,14 +4204,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4489,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4528,14 +4270,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4567,14 +4303,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4606,14 +4336,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4645,14 +4369,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4684,14 +4402,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4723,14 +4435,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4762,14 +4468,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4801,14 +4501,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4840,14 +4534,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4879,14 +4567,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4918,14 +4600,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4957,14 +4633,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4996,14 +4666,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5035,14 +4699,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5074,14 +4732,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5113,14 +4765,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5152,14 +4798,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5191,14 +4831,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5230,14 +4864,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5269,14 +4897,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5308,14 +4930,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5347,14 +4963,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +4996,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5425,14 +5029,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5464,14 +5062,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5503,14 +5095,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5542,14 +5128,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5581,14 +5161,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5620,14 +5194,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5659,14 +5227,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5698,14 +5260,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5737,14 +5293,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5776,14 +5326,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5815,14 +5359,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5854,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5893,14 +5425,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5929,19 +5455,11 @@
         <v>922.2679668000006</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>103900</v>
-      </c>
-      <c r="J142" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5973,14 +5491,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6009,19 +5521,11 @@
         <v>905.6491668000007</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>103700</v>
-      </c>
-      <c r="J144" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6050,19 +5554,11 @@
         <v>891.8850668000007</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>103700</v>
-      </c>
-      <c r="J145" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6091,19 +5587,11 @@
         <v>935.5800668000007</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>103200</v>
-      </c>
-      <c r="J146" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6132,19 +5620,11 @@
         <v>1015.023066800001</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>103600</v>
-      </c>
-      <c r="J147" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6173,19 +5653,11 @@
         <v>1007.142366800001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>103900</v>
-      </c>
-      <c r="J148" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6214,19 +5686,11 @@
         <v>1006.744566800001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>103500</v>
-      </c>
-      <c r="J149" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6255,19 +5719,11 @@
         <v>1006.896770070001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>103300</v>
-      </c>
-      <c r="J150" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6296,19 +5752,11 @@
         <v>1005.991070070001</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>103800</v>
-      </c>
-      <c r="J151" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6337,19 +5785,11 @@
         <v>1020.728166800001</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>103700</v>
-      </c>
-      <c r="J152" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6381,14 +5821,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6420,14 +5854,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6459,14 +5887,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6495,19 +5917,11 @@
         <v>997.5591668000006</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>103600</v>
-      </c>
-      <c r="J156" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6536,19 +5950,11 @@
         <v>1008.559166800001</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>103600</v>
-      </c>
-      <c r="J157" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6577,19 +5983,11 @@
         <v>1036.863566800001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>103800</v>
-      </c>
-      <c r="J158" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6621,14 +6019,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6657,19 +6049,11 @@
         <v>1046.883566800001</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>104100</v>
-      </c>
-      <c r="J160" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6701,14 +6085,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6737,19 +6115,11 @@
         <v>1037.426566800001</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>103900</v>
-      </c>
-      <c r="J162" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6781,14 +6151,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6820,14 +6184,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6859,14 +6217,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6898,14 +6250,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6937,14 +6283,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6976,14 +6316,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7015,14 +6349,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7054,14 +6382,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7093,14 +6415,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7132,14 +6448,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7171,14 +6481,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7210,14 +6514,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7249,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7288,14 +6580,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7327,14 +6613,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7366,14 +6646,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7405,14 +6679,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7444,14 +6712,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7483,14 +6745,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7522,14 +6778,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7561,14 +6811,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7600,14 +6844,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7639,14 +6877,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7678,14 +6910,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7717,14 +6943,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7756,14 +6976,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7795,14 +7009,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7834,14 +7042,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7873,14 +7075,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7912,14 +7108,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7951,14 +7141,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7990,14 +7174,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8029,14 +7207,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8068,14 +7240,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8107,14 +7273,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8146,14 +7306,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8185,14 +7339,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8224,14 +7372,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8263,14 +7405,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8302,14 +7438,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8341,14 +7471,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8380,14 +7504,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8419,14 +7537,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8458,14 +7570,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8497,14 +7603,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8536,14 +7636,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8575,14 +7669,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8614,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8650,17 +7732,11 @@
         <v>1537.660802860001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8689,17 +7765,11 @@
         <v>1563.521002860001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8728,17 +7798,11 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8767,17 +7831,11 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8806,17 +7864,11 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8845,17 +7897,11 @@
         <v>1558.501002860001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8884,17 +7930,11 @@
         <v>1514.222202860001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8926,14 +7966,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8965,14 +7999,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9004,14 +8032,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9043,14 +8065,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9082,14 +8098,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9121,14 +8131,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9160,14 +8164,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9199,14 +8197,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9238,14 +8230,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9277,14 +8263,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9316,14 +8296,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9355,14 +8329,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9394,14 +8362,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9433,14 +8395,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9472,14 +8428,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9511,14 +8461,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9550,14 +8494,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9589,14 +8527,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9628,14 +8560,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9667,14 +8593,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9706,14 +8626,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9745,14 +8659,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9784,14 +8692,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9823,14 +8725,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9862,14 +8758,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9901,14 +8791,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9940,14 +8824,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9979,14 +8857,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10018,14 +8890,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10057,14 +8923,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10096,14 +8956,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10135,14 +8989,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10174,14 +9022,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10213,14 +9055,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10252,14 +9088,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10291,14 +9121,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10330,14 +9154,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10369,14 +9187,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10408,14 +9220,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10447,14 +9253,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10486,14 +9286,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10525,14 +9319,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10564,14 +9352,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10603,14 +9385,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10642,14 +9418,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10681,14 +9451,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10720,14 +9484,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10759,14 +9517,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10798,14 +9550,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10837,14 +9583,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10876,14 +9616,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10915,14 +9649,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10954,14 +9682,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10993,14 +9715,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11032,14 +9748,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11071,14 +9781,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11110,14 +9814,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11149,14 +9847,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11188,14 +9880,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11227,14 +9913,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11266,14 +9946,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11305,14 +9979,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11344,14 +10012,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11383,14 +10045,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11422,14 +10078,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11461,14 +10111,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11500,14 +10144,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11539,14 +10177,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11578,14 +10210,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11617,14 +10243,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11656,14 +10276,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11695,14 +10309,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11734,14 +10342,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11773,14 +10375,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11812,14 +10408,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11851,14 +10441,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11890,14 +10474,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11929,14 +10507,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11968,14 +10540,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12007,14 +10573,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12046,14 +10606,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12085,14 +10639,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12124,14 +10672,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12163,14 +10705,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12202,14 +10738,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12241,14 +10771,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12280,14 +10804,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12319,14 +10837,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12358,14 +10870,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12397,14 +10903,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12436,14 +10936,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12475,14 +10969,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12514,14 +11002,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12553,14 +11035,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12592,14 +11068,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12631,14 +11101,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12670,14 +11134,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12709,14 +11167,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12748,14 +11200,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12787,14 +11233,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12826,14 +11266,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12865,14 +11299,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12904,14 +11332,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12943,14 +11365,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12982,14 +11398,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13021,14 +11431,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13060,14 +11464,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13099,14 +11497,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13138,14 +11530,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13177,14 +11563,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13216,14 +11596,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13255,14 +11629,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13294,14 +11662,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13333,14 +11695,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13372,14 +11728,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13411,14 +11761,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13450,14 +11794,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13489,14 +11827,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13528,14 +11860,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13567,14 +11893,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13606,14 +11926,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13645,14 +11959,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13684,14 +11992,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13723,14 +12025,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13762,14 +12058,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13801,14 +12091,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13840,14 +12124,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13879,14 +12157,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13918,14 +12190,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13957,14 +12223,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13996,14 +12256,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14035,14 +12289,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14074,14 +12322,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14113,14 +12355,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14152,14 +12388,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14191,14 +12421,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14230,14 +12454,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14269,14 +12487,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14308,14 +12520,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14347,14 +12553,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14386,14 +12586,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14425,14 +12619,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14464,14 +12652,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14503,14 +12685,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14542,14 +12718,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14581,14 +12751,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14620,14 +12784,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14659,14 +12817,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14698,14 +12850,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14737,14 +12883,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14776,14 +12916,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14815,14 +12949,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14854,14 +12982,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14893,14 +13015,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14932,14 +13048,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14971,14 +13081,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15010,14 +13114,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15049,14 +13147,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15088,14 +13180,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15127,14 +13213,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15166,14 +13246,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15205,14 +13279,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15244,14 +13312,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15283,14 +13345,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15322,14 +13378,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15361,14 +13411,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15400,14 +13444,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15439,14 +13477,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15478,14 +13510,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15517,14 +13543,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15556,14 +13576,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15595,14 +13609,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15634,14 +13642,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15673,14 +13675,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15709,17 +13705,11 @@
         <v>1697.608772750001</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15748,17 +13738,11 @@
         <v>1684.630772750001</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15787,17 +13771,11 @@
         <v>1692.990272750001</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15826,17 +13804,11 @@
         <v>1938.759528710001</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15865,17 +13837,11 @@
         <v>1743.660928710001</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15904,17 +13870,11 @@
         <v>1801.363633030001</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15943,17 +13903,11 @@
         <v>1755.035437350002</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15982,17 +13936,11 @@
         <v>1776.508337350002</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16021,17 +13969,11 @@
         <v>1898.631833510002</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16060,17 +14002,11 @@
         <v>1898.631833510002</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16099,17 +14035,11 @@
         <v>1654.441298030002</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16138,17 +14068,11 @@
         <v>1503.078598030002</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16180,14 +14104,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16219,14 +14137,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16258,14 +14170,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16297,14 +14203,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16336,14 +14236,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16375,14 +14269,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16414,14 +14302,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16453,14 +14335,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16492,14 +14368,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16531,14 +14401,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16570,14 +14434,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16609,14 +14467,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16648,14 +14500,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16687,14 +14533,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16726,14 +14566,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16765,14 +14599,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16804,14 +14632,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16843,14 +14665,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16882,14 +14698,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16921,14 +14731,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16960,14 +14764,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16999,14 +14797,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17038,14 +14830,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17077,14 +14863,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17113,17 +14893,11 @@
         <v>1828.023777700002</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17152,17 +14926,11 @@
         <v>1812.336877700002</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17191,17 +14959,11 @@
         <v>1812.336877700002</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17230,17 +14992,11 @@
         <v>1769.777177700002</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17269,17 +15025,11 @@
         <v>1733.387077700002</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17308,17 +15058,11 @@
         <v>1776.560677700002</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17347,17 +15091,11 @@
         <v>1782.394077700002</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17386,17 +15124,11 @@
         <v>1841.623117190002</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17425,17 +15157,11 @@
         <v>1941.048617190002</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17467,14 +15193,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17506,14 +15226,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17545,14 +15259,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17584,14 +15292,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17623,14 +15325,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17662,14 +15358,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17701,14 +15391,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17740,14 +15424,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17779,14 +15457,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17818,14 +15490,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17857,14 +15523,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17896,14 +15556,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17932,23 +15586,15 @@
         <v>1944.654117190002</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>104000</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
-        <v>1.052692307692308</v>
-      </c>
-      <c r="M449" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -17973,7 +15619,7 @@
         <v>1944.654117190002</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -18006,7 +15652,7 @@
         <v>1944.654117190002</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -18072,7 +15718,7 @@
         <v>1950.264617190002</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -18138,7 +15784,7 @@
         <v>1952.456930870002</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18171,7 +15817,7 @@
         <v>1946.614130870002</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18204,7 +15850,7 @@
         <v>1945.654230870002</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18237,7 +15883,7 @@
         <v>1945.673287130002</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18303,7 +15949,7 @@
         <v>1882.579747500002</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18336,7 +15982,7 @@
         <v>1882.579747500002</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18369,7 +16015,7 @@
         <v>1882.090147500002</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18402,7 +16048,7 @@
         <v>1882.090147500002</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18435,7 +16081,7 @@
         <v>1832.394547500002</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18468,7 +16114,7 @@
         <v>1832.394547500002</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18501,7 +16147,7 @@
         <v>1832.394547500002</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18534,7 +16180,7 @@
         <v>1774.861647500002</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18567,7 +16213,7 @@
         <v>1769.945247500002</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18600,7 +16246,7 @@
         <v>1722.003147500002</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18666,7 +16312,7 @@
         <v>1726.651647500002</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18765,7 +16411,7 @@
         <v>1521.788347500002</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18798,7 +16444,7 @@
         <v>1521.788347500002</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18831,7 +16477,7 @@
         <v>1536.414247500002</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18864,7 +16510,7 @@
         <v>1543.864447500002</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18930,7 +16576,7 @@
         <v>1185.495547500002</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18963,7 +16609,7 @@
         <v>1196.823247500002</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18996,7 +16642,7 @@
         <v>1236.976347500002</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19029,7 +16675,7 @@
         <v>1362.602647500002</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19062,7 +16708,7 @@
         <v>1362.602647500002</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19095,7 +16741,7 @@
         <v>1447.156547500002</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19128,7 +16774,7 @@
         <v>1524.943947500002</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19161,7 +16807,7 @@
         <v>1524.943947500002</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -21339,7 +18985,7 @@
         <v>2852.239601120001</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21372,7 +19018,7 @@
         <v>2788.099901120001</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21405,7 +19051,7 @@
         <v>2788.099901120001</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21438,7 +19084,7 @@
         <v>2645.488201120001</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21471,7 +19117,7 @@
         <v>2473.552401120001</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21504,7 +19150,7 @@
         <v>2473.552401120001</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21537,7 +19183,7 @@
         <v>2428.188901120001</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21570,7 +19216,7 @@
         <v>2428.188901120001</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21603,7 +19249,7 @@
         <v>2365.028901120001</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21636,7 +19282,7 @@
         <v>2279.750101120001</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21669,7 +19315,7 @@
         <v>2294.160601120001</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21702,7 +19348,7 @@
         <v>2321.715901120001</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21735,7 +19381,7 @@
         <v>2350.999201120001</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21768,7 +19414,7 @@
         <v>2312.567001120001</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21801,7 +19447,7 @@
         <v>2269.444101120001</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21834,7 +19480,7 @@
         <v>2308.518701120001</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21933,7 +19579,7 @@
         <v>2328.198501120001</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21966,7 +19612,7 @@
         <v>2339.209201120001</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21999,7 +19645,7 @@
         <v>2317.36850112</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22032,7 +19678,7 @@
         <v>2342.64560112</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22065,7 +19711,7 @@
         <v>2342.64560112</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22098,7 +19744,7 @@
         <v>2337.36160112</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22131,7 +19777,7 @@
         <v>2337.36160112</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22164,7 +19810,7 @@
         <v>2242.60000112</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22197,7 +19843,7 @@
         <v>2244.70100112</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22230,7 +19876,7 @@
         <v>2231.926801120001</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22263,7 +19909,7 @@
         <v>2181.341701120001</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22296,7 +19942,7 @@
         <v>2181.341701120001</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22593,7 +20239,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22626,7 +20272,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22659,7 +20305,7 @@
         <v>1952.402501120001</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22692,7 +20338,7 @@
         <v>1880.845301120001</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22725,7 +20371,7 @@
         <v>1617.562301120001</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22758,7 +20404,7 @@
         <v>1617.562301120001</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22791,7 +20437,7 @@
         <v>1341.410601120001</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22824,7 +20470,7 @@
         <v>1364.053501120001</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22857,7 +20503,7 @@
         <v>1357.535401120001</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22890,7 +20536,7 @@
         <v>1342.073801120001</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22923,7 +20569,7 @@
         <v>1342.073801120001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22956,7 +20602,7 @@
         <v>1342.073801120001</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22989,7 +20635,7 @@
         <v>1294.998401120001</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23022,7 +20668,7 @@
         <v>1305.749601120001</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23055,7 +20701,7 @@
         <v>1305.749601120001</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23088,7 +20734,7 @@
         <v>1305.749601120001</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23121,7 +20767,7 @@
         <v>1305.749601120001</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23154,7 +20800,7 @@
         <v>1300.900001120001</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23187,7 +20833,7 @@
         <v>1311.447801120001</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23220,7 +20866,7 @@
         <v>1325.258201120001</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23253,7 +20899,7 @@
         <v>1325.258201120001</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23286,7 +20932,7 @@
         <v>1340.473501120001</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -23319,7 +20965,7 @@
         <v>1384.323401120001</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -23352,7 +20998,7 @@
         <v>1384.323401120001</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23385,7 +21031,7 @@
         <v>1399.585901120001</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23418,7 +21064,7 @@
         <v>1418.113401120001</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23451,7 +21097,7 @@
         <v>1418.113401120001</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23484,7 +21130,7 @@
         <v>1419.232501120001</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23517,7 +21163,7 @@
         <v>1414.267601120001</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23550,7 +21196,7 @@
         <v>1414.267601120001</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23583,7 +21229,7 @@
         <v>1414.267601120001</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23616,7 +21262,7 @@
         <v>1410.041701120001</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23649,7 +21295,7 @@
         <v>1409.975201120001</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23682,7 +21328,7 @@
         <v>1409.955201120001</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23715,7 +21361,7 @@
         <v>1408.666301120001</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23748,7 +21394,7 @@
         <v>1403.096201120001</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -29534,6 +27180,6 @@
       <c r="M800" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest BSV.xlsx
+++ b/BackTest/2019-10-16 BackTest BSV.xlsx
@@ -931,9 +931,11 @@
         <v>685.5553</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>104600</v>
+      </c>
       <c r="J14" t="n">
         <v>104000</v>
       </c>
@@ -970,9 +972,11 @@
         <v>739.8253</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>104300</v>
+      </c>
       <c r="J15" t="n">
         <v>104000</v>
       </c>
@@ -1009,9 +1013,11 @@
         <v>739.8253</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>104500</v>
+      </c>
       <c r="J16" t="n">
         <v>104000</v>
       </c>
@@ -1048,9 +1054,11 @@
         <v>739.8253</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>104500</v>
+      </c>
       <c r="J17" t="n">
         <v>104000</v>
       </c>
@@ -1087,9 +1095,11 @@
         <v>753.8973</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>104500</v>
+      </c>
       <c r="J18" t="n">
         <v>104000</v>
       </c>
@@ -2842,7 +2852,7 @@
         <v>2009.0545668</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
@@ -2850,11 +2860,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.015192307692308</v>
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr"/>
     </row>
@@ -2884,8 +2894,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2917,8 +2933,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2950,8 +2972,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2983,8 +3011,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3016,8 +3050,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3049,8 +3089,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3082,8 +3128,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3115,8 +3167,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3148,8 +3206,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3181,8 +3245,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3214,8 +3284,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3247,8 +3323,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3280,8 +3362,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3313,8 +3401,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3346,8 +3440,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3379,8 +3479,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3412,8 +3518,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3445,8 +3557,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3478,8 +3596,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3511,8 +3635,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3544,8 +3674,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3577,8 +3713,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3610,8 +3752,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3643,8 +3791,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3676,8 +3830,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3709,8 +3869,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3742,8 +3908,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3775,8 +3947,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3808,8 +3986,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3841,8 +4025,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3874,8 +4064,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3907,8 +4103,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3940,8 +4142,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3973,8 +4181,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4006,8 +4220,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4039,8 +4259,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4072,8 +4298,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4105,8 +4337,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4138,8 +4376,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4171,8 +4415,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4204,8 +4454,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4493,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4270,8 +4532,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4303,8 +4571,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4336,8 +4610,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4369,8 +4649,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4402,8 +4688,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4435,8 +4727,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4468,8 +4766,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4501,8 +4805,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4534,8 +4844,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4567,8 +4883,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4600,8 +4922,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4633,8 +4961,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4666,8 +5000,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4699,8 +5039,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4732,8 +5078,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4765,8 +5117,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4798,8 +5156,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4831,8 +5195,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4864,8 +5234,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4897,8 +5273,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4930,8 +5312,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4963,8 +5351,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4996,8 +5390,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5029,8 +5429,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5062,8 +5468,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5095,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5128,8 +5546,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5161,8 +5585,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5194,8 +5624,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5227,8 +5663,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5260,8 +5702,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5293,8 +5741,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5326,8 +5780,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5359,8 +5819,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +5858,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5425,8 +5897,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5458,8 +5936,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5491,8 +5975,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5524,8 +6014,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5557,8 +6053,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5590,8 +6092,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5623,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5656,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5689,8 +6209,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5722,8 +6248,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5755,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5788,8 +6326,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5821,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5854,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5887,8 +6443,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5920,8 +6482,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5953,8 +6521,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5986,8 +6560,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6019,8 +6599,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6052,8 +6638,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6085,8 +6677,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6118,8 +6716,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6151,8 +6755,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6184,8 +6794,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6217,8 +6833,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6250,8 +6872,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6283,8 +6911,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6316,8 +6950,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6349,8 +6989,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6382,8 +7028,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6415,8 +7067,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6448,8 +7106,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6481,8 +7145,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6514,8 +7184,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +7223,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6580,8 +7262,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6613,8 +7301,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6646,8 +7340,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6679,8 +7379,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6712,8 +7418,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6745,8 +7457,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6778,8 +7496,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6811,8 +7535,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6844,8 +7574,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6877,8 +7613,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6910,8 +7652,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6943,8 +7691,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6976,8 +7730,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7009,8 +7769,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7042,8 +7808,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7075,8 +7847,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7108,8 +7886,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7141,8 +7925,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7174,8 +7964,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7207,8 +8003,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7240,8 +8042,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7273,8 +8081,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7306,8 +8120,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7339,8 +8159,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7372,8 +8198,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7405,8 +8237,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7438,8 +8276,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7471,8 +8315,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7504,8 +8354,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7537,8 +8393,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7570,8 +8432,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7603,8 +8471,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7636,8 +8510,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7669,8 +8549,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +8588,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7732,11 +8624,17 @@
         <v>1537.660802860001</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7765,11 +8663,17 @@
         <v>1563.521002860001</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7798,11 +8702,17 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7831,11 +8741,17 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7864,11 +8780,17 @@
         <v>1558.521002860001</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7897,11 +8819,17 @@
         <v>1558.501002860001</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7930,11 +8858,17 @@
         <v>1514.222202860001</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7966,8 +8900,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7999,8 +8939,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8032,8 +8978,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8065,8 +9017,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8098,8 +9056,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8131,8 +9095,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8164,8 +9134,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8197,8 +9173,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8230,8 +9212,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8263,8 +9251,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8296,8 +9290,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8329,8 +9329,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8362,8 +9368,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8395,8 +9407,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8428,8 +9446,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8461,8 +9485,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8494,8 +9524,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8527,8 +9563,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8560,8 +9602,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8593,8 +9641,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8626,8 +9680,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8659,8 +9719,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8692,8 +9758,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8725,8 +9797,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8758,8 +9836,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8791,8 +9875,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8824,8 +9914,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8857,8 +9953,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8890,8 +9992,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8923,8 +10031,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8956,8 +10070,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8989,8 +10109,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9022,8 +10148,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9055,8 +10187,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9088,8 +10226,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9121,8 +10265,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9154,8 +10304,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9187,8 +10343,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9220,8 +10382,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9253,8 +10421,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9286,8 +10460,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9319,8 +10499,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9352,8 +10538,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9385,8 +10577,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9418,8 +10616,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9451,8 +10655,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9484,8 +10694,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9517,8 +10733,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9550,8 +10772,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9583,8 +10811,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9616,8 +10850,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9649,8 +10889,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9682,8 +10928,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9715,8 +10967,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9748,8 +11006,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9781,8 +11045,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9814,8 +11084,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9847,8 +11123,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9880,8 +11162,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9913,8 +11201,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9946,8 +11240,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9979,8 +11279,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10012,8 +11318,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10045,8 +11357,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10078,8 +11396,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10111,8 +11435,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10144,8 +11474,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10177,8 +11513,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10210,8 +11552,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10243,8 +11591,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10276,8 +11630,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10309,8 +11669,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10342,8 +11708,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10375,8 +11747,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10408,8 +11786,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10441,8 +11825,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10474,8 +11864,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10507,8 +11903,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10540,8 +11942,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10573,8 +11981,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10606,8 +12020,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10639,8 +12059,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10672,8 +12098,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10705,8 +12137,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10738,8 +12176,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10771,8 +12215,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10804,8 +12254,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10837,8 +12293,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10870,8 +12332,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10903,8 +12371,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10936,8 +12410,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10969,8 +12449,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11002,8 +12488,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11035,8 +12527,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11068,8 +12566,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11101,8 +12605,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11134,8 +12644,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11167,8 +12683,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11200,8 +12722,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11233,8 +12761,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11266,8 +12800,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11299,8 +12839,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11332,8 +12878,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11365,8 +12917,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11398,8 +12956,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11431,8 +12995,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11464,8 +13034,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11497,8 +13073,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11530,8 +13112,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11563,8 +13151,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11596,8 +13190,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11629,8 +13229,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11662,8 +13268,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11695,8 +13307,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11728,8 +13346,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11761,8 +13385,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11794,8 +13424,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11827,8 +13463,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11860,8 +13502,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11893,8 +13541,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11926,8 +13580,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11959,8 +13619,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11992,8 +13658,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12025,8 +13697,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12058,8 +13736,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12091,8 +13775,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12124,8 +13814,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12157,8 +13853,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12190,8 +13892,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12223,8 +13931,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12256,8 +13970,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12289,8 +14009,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12322,8 +14048,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12355,8 +14087,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12388,8 +14126,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12421,8 +14165,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12454,8 +14204,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12487,8 +14243,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12520,8 +14282,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12553,8 +14321,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12586,8 +14360,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12619,8 +14399,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12652,8 +14438,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12685,8 +14477,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12718,8 +14516,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12751,8 +14555,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12784,8 +14594,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12817,8 +14633,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12850,8 +14672,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12883,8 +14711,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12916,8 +14750,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12949,8 +14789,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12982,8 +14828,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13015,8 +14867,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13048,8 +14906,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13081,8 +14945,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13114,8 +14984,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13147,8 +15023,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13180,8 +15062,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13213,8 +15101,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13246,8 +15140,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13279,8 +15179,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13312,8 +15218,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13345,8 +15257,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13378,8 +15296,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13411,8 +15335,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13444,8 +15374,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13477,8 +15413,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13510,8 +15452,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13543,8 +15491,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13576,8 +15530,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13609,8 +15569,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13642,8 +15608,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13675,8 +15647,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13705,11 +15683,17 @@
         <v>1697.608772750001</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13738,11 +15722,17 @@
         <v>1684.630772750001</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13771,11 +15761,17 @@
         <v>1692.990272750001</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13804,11 +15800,17 @@
         <v>1938.759528710001</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13837,11 +15839,17 @@
         <v>1743.660928710001</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13870,11 +15878,17 @@
         <v>1801.363633030001</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13903,11 +15917,17 @@
         <v>1755.035437350002</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13936,11 +15956,17 @@
         <v>1776.508337350002</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13969,11 +15995,17 @@
         <v>1898.631833510002</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14002,11 +16034,17 @@
         <v>1898.631833510002</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14035,11 +16073,17 @@
         <v>1654.441298030002</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14068,11 +16112,17 @@
         <v>1503.078598030002</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14104,8 +16154,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14137,8 +16193,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14170,8 +16232,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14200,15 +16268,23 @@
         <v>2721.777674800001</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>104000</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
+        <v>1.061346153846154</v>
+      </c>
+      <c r="M407" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -14233,7 +16309,7 @@
         <v>2549.486074800001</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14266,7 +16342,7 @@
         <v>2146.487374800001</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14299,7 +16375,7 @@
         <v>1980.994474800001</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14497,7 +16573,7 @@
         <v>2062.657177700002</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14662,7 +16738,7 @@
         <v>1996.294977700002</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14893,7 +16969,7 @@
         <v>1828.023777700002</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14926,7 +17002,7 @@
         <v>1812.336877700002</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14959,7 +17035,7 @@
         <v>1812.336877700002</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14992,7 +17068,7 @@
         <v>1769.777177700002</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15025,7 +17101,7 @@
         <v>1733.387077700002</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15058,7 +17134,7 @@
         <v>1776.560677700002</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15091,7 +17167,7 @@
         <v>1782.394077700002</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15190,7 +17266,7 @@
         <v>2036.922517190002</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15223,7 +17299,7 @@
         <v>1964.253217190002</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15256,7 +17332,7 @@
         <v>1964.253217190002</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15289,7 +17365,7 @@
         <v>1946.065017190002</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15454,7 +17530,7 @@
         <v>2028.708017190002</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15520,7 +17596,7 @@
         <v>2051.481017190002</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15553,7 +17629,7 @@
         <v>2016.867017190002</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15586,7 +17662,7 @@
         <v>1944.654117190002</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15784,7 +17860,7 @@
         <v>1952.456930870002</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15817,7 +17893,7 @@
         <v>1946.614130870002</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15883,7 +17959,7 @@
         <v>1945.673287130002</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15916,7 +17992,7 @@
         <v>1882.579747500002</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15949,7 +18025,7 @@
         <v>1882.579747500002</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16015,7 +18091,7 @@
         <v>1882.090147500002</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16081,7 +18157,7 @@
         <v>1832.394547500002</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18787,7 +20863,7 @@
         <v>2628.070101750001</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18820,7 +20896,7 @@
         <v>2628.070101750001</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18919,7 +20995,7 @@
         <v>2774.460401750001</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18952,7 +21028,7 @@
         <v>2774.460401750001</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18985,7 +21061,7 @@
         <v>2852.239601120001</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19018,7 +21094,7 @@
         <v>2788.099901120001</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19051,7 +21127,7 @@
         <v>2788.099901120001</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19084,7 +21160,7 @@
         <v>2645.488201120001</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19117,7 +21193,7 @@
         <v>2473.552401120001</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19150,7 +21226,7 @@
         <v>2473.552401120001</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19183,7 +21259,7 @@
         <v>2428.188901120001</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19216,7 +21292,7 @@
         <v>2428.188901120001</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19249,7 +21325,7 @@
         <v>2365.028901120001</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19282,7 +21358,7 @@
         <v>2279.750101120001</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19315,7 +21391,7 @@
         <v>2294.160601120001</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19348,7 +21424,7 @@
         <v>2321.715901120001</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19381,7 +21457,7 @@
         <v>2350.999201120001</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19414,7 +21490,7 @@
         <v>2312.567001120001</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19447,7 +21523,7 @@
         <v>2269.444101120001</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19480,7 +21556,7 @@
         <v>2308.518701120001</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19513,7 +21589,7 @@
         <v>2308.518701120001</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19546,7 +21622,7 @@
         <v>2308.518701120001</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19579,7 +21655,7 @@
         <v>2328.198501120001</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19612,7 +21688,7 @@
         <v>2339.209201120001</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19645,7 +21721,7 @@
         <v>2317.36850112</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19678,7 +21754,7 @@
         <v>2342.64560112</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19711,7 +21787,7 @@
         <v>2342.64560112</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19744,7 +21820,7 @@
         <v>2337.36160112</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19777,7 +21853,7 @@
         <v>2337.36160112</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19810,7 +21886,7 @@
         <v>2242.60000112</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19843,7 +21919,7 @@
         <v>2244.70100112</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19876,7 +21952,7 @@
         <v>2231.926801120001</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19909,7 +21985,7 @@
         <v>2181.341701120001</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19942,7 +22018,7 @@
         <v>2181.341701120001</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19975,7 +22051,7 @@
         <v>2203.924101120001</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20008,7 +22084,7 @@
         <v>2203.924101120001</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20041,7 +22117,7 @@
         <v>2203.924101120001</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20074,7 +22150,7 @@
         <v>2055.539001120001</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20107,7 +22183,7 @@
         <v>2055.539001120001</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20140,7 +22216,7 @@
         <v>2102.252201120001</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20173,7 +22249,7 @@
         <v>1971.002801120001</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20206,7 +22282,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20239,7 +22315,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20272,7 +22348,7 @@
         <v>1975.203701120001</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20305,7 +22381,7 @@
         <v>1952.402501120001</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
